--- a/4 четверть_13_JavaScript_sugarJS.xlsx
+++ b/4 четверть_13_JavaScript_sugarJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA07FD3-2E0E-4E79-8E6E-5FB263FE019D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3D1D5D-F662-4CC3-AD3A-31FE8723459C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-645" yWindow="-20070" windowWidth="23010" windowHeight="17460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sugarjs" sheetId="20" r:id="rId1"/>
@@ -9594,12 +9594,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9816,7 +9824,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9829,50 +9837,50 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -14196,7 +14204,7 @@
       <c r="D98" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -14209,8 +14217,8 @@
   </sheetPr>
   <dimension ref="A2:AB100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/4 четверть_13_JavaScript_sugarJS.xlsx
+++ b/4 четверть_13_JavaScript_sugarJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3D1D5D-F662-4CC3-AD3A-31FE8723459C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FAD3F1-49CC-4D4D-B367-F5C9670C3943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-645" yWindow="-20070" windowWidth="23010" windowHeight="17460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="-19650" windowWidth="23010" windowHeight="17460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sugarjs" sheetId="20" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="719">
   <si>
     <t>construct(n,indexMapFn)</t>
   </si>
@@ -3156,13 +3156,6 @@
     <t>create(d,[options])</t>
   </si>
   <si>
-    <t xml:space="preserve">Alternate date constructor which accepts text formats, a timestamp, objects, or another date.
-If no argument is given, the date is assumed to be now. 
-The second argument can either be an options object or a locale code as a shortcut. 
-For more, see date parsing.
-</t>
-  </si>
-  <si>
     <t>locale</t>
   </si>
   <si>
@@ -3206,53 +3199,6 @@
     <t>An optional object that is populated with properties that are parsed from string input. This option is useful when parsed properties need to be retained.</t>
   </si>
   <si>
-    <t>Option 1</t>
-  </si>
-  <si>
-    <t>Option 2</t>
-  </si>
-  <si>
-    <t>Option 3</t>
-  </si>
-  <si>
-    <t>Option 4</t>
-  </si>
-  <si>
-    <t>Option 5</t>
-  </si>
-  <si>
-    <t>Option 6</t>
-  </si>
-  <si>
-    <t>Option 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date.create('July')
-Date.create('1776') 
-Date.create('today')
-Date.create('Wednesday') 
-Date.create('next Friday')
-Date.create('July 4, 1776')
-Date.create(-446806800000)
-Date.create('1776年07月04日', 'ja')
-Date.create('August', {past: true})
-Date.create('August', {future: true})
-Date.create('Thursday', {fromUTC: true}) </t>
-  </si>
-  <si>
-    <t>July 1, 2025 12:00 AM
-January 1, 1776 12:00 AM
-August 27, 2025 12:00 AM
-August 27, 2025 12:00 AM
-September 5, 2025 12:00 AM
-July 4, 1776 12:00 AM
-November 4, 1955 6:00 PM
-July 4, 1776 12:00 AM
-August 1, 2025 12:00 AM
-August 1, 2026 12:00 AM
-August 28, 2025 3:00 AM</t>
-  </si>
-  <si>
     <t>getAllLocaleCodes()</t>
   </si>
   <si>
@@ -3292,9 +3238,6 @@
   </si>
   <si>
     <t>range([start],[end])</t>
-  </si>
-  <si>
-    <t>Creates a new date range between start and end. Arguments may be either dates or strings which will be forwarded to the date constructor (create will be used if present in the build). If either start or end are undefined, they will default to the current date. This method also accepts an alternate syntax of a single string describing the range in natural language.</t>
   </si>
   <si>
     <t>See ranges for more.
@@ -3423,9 +3366,6 @@
   </si>
   <si>
     <t>advance(set,[reset] = false)</t>
-  </si>
-  <si>
-    <t>Shifts the date forward. set accepts multiple formats including an object, a string in the format "3 days", a single number as milliseconds, or enumerated parameters (as with the Date constructor). If reset is true, any units more specific than those passed will be reset. This method modifies the date!</t>
   </si>
   <si>
     <t>new Date().addMilliseconds(5)</t>
@@ -3459,9 +3399,6 @@
   </si>
   <si>
     <t>beginningOfISOWeek()</t>
-  </si>
-  <si>
-    <t>Set the date to the beginning of week as defined by ISO8601. Note that this standard places Monday at the start of the week. This method modifies the date!</t>
   </si>
   <si>
     <t>new Date().beginningOfISOWeek()</t>
@@ -9588,6 +9525,1345 @@
   </si>
   <si>
     <t>Stream - Middleware</t>
+  </si>
+  <si>
+    <t>new Date().clone()</t>
+  </si>
+  <si>
+    <t>October 3, 2025 9:59 AM</t>
+  </si>
+  <si>
+    <t>daysInMonth()</t>
+  </si>
+  <si>
+    <t>may.daysInMonth()
+feb.daysInMonth()</t>
+  </si>
+  <si>
+    <t>31
+28</t>
+  </si>
+  <si>
+    <t>endOfISOWeek()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set the date to the end of week as defined by this ISO8601 standard. Note that this standard places Sunday at the end of the week. This method modifies the date!
+</t>
+  </si>
+  <si>
+    <t>new Date().endOfISOWeek()</t>
+  </si>
+  <si>
+    <t>October 5, 2025 11:59 PM</t>
+  </si>
+  <si>
+    <t>endOfUnit([localeCode])</t>
+  </si>
+  <si>
+    <t>Sets the date to the end of the appropriate unit. This method modifies the date! A locale code can be passed for endOfWeek, which is locale dependent. If consistency is needed, use endOfISOWeek instead.</t>
+  </si>
+  <si>
+    <t>new Date().endOfDay()
+new Date().endOfWeek()
+new Date().endOfMonth()
+new Date().endOfYear()</t>
+  </si>
+  <si>
+    <t>October 3, 2025 11:59 PM
+October 4, 2025 11:59 PM
+October 31, 2025 11:59 PM
+December 31, 2025 11:59 PM</t>
+  </si>
+  <si>
+    <t>format([f],[localeCode] = currentLocaleCode)</t>
+  </si>
+  <si>
+    <t>Returns the date as a string using the format f. f is a string that contains tokens in either LDML format using curly braces, or "strftime" format using a percent sign. If f is not specified, the locale specific {long} format is used. localeCode is a locale code to use (if not specified the current locale is used). For more, see date formatting.</t>
+  </si>
+  <si>
+    <t>`https://sugarjs.com/docs/#/DateFormatting</t>
+  </si>
+  <si>
+    <t>new Date().format()
+new Date().format('{Weekday} {d} {Month}')
+new Date().format('{hh}:{mm}')
+new Date().format('%H:%M')
+new Date().format('{12hr}:{mm}{tt}')
+new Date().format('ISO8601')
+new Date().format('{Weekday}', 'ja')</t>
+  </si>
+  <si>
+    <t>"October 3, 2025 10:02 AM"
+"Friday 3 October"
+"10:02"
+"10:02"
+"10:02am"
+"2025-10-03T10:02:18.939+03:00"
+"金曜日"</t>
+  </si>
+  <si>
+    <t>full([localeCode] = currentLocaleCode)</t>
+  </si>
+  <si>
+    <t>Outputs the date in the full format for the current locale. localeCode overrides the current locale code if passed.</t>
+  </si>
+  <si>
+    <t>new Date().full()
+new Date().full('ru')</t>
+  </si>
+  <si>
+    <t>"Friday, October 3, 2025 10:10 AM"
+"пятница, 3 октября 2025 г., 10:10"</t>
+  </si>
+  <si>
+    <t>get(d,[options])</t>
+  </si>
+  <si>
+    <t>`https://sugarjs.com/docs/#/Date/create</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gets a new date using the current one as a starting point. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This method is identical to Date.create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, except that relative formats like next month are relative to the date instance rather than the current date. Accepts a locale code as a string in place of options. See create for more.</t>
+    </r>
+  </si>
+  <si>
+    <t>nextYear.get('monday')
+millenium.get('2 years before')</t>
+  </si>
+  <si>
+    <t>September 28, 2026 12:00 AM
+January 1, 1998 12:00 AM</t>
+  </si>
+  <si>
+    <t>getISOWeek()</t>
+  </si>
+  <si>
+    <t>Gets the date's week (of the year) as defined by the ISO8601 standard. Note that this standard places Sunday at the end of the week (day 7). If utc is set on the date, the week will be according to UTC time.</t>
+  </si>
+  <si>
+    <t>new Date().getISOWeek()</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>getUTCOffset([iso] = false)</t>
+  </si>
+  <si>
+    <t>Returns a string representation of the offset from UTC time. If iso is true the offset will be in ISO8601 format.</t>
+  </si>
+  <si>
+    <t>new Date().getUTCOffset()
+new Date().getUTCOffset(true)</t>
+  </si>
+  <si>
+    <t>"+0300"
+"+03:00"</t>
+  </si>
+  <si>
+    <t>getUTCWeekday()</t>
+  </si>
+  <si>
+    <t>Alias for getUTCDay.</t>
+  </si>
+  <si>
+    <t>new Date().getUTCWeekday();</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>getWeekday()</t>
+  </si>
+  <si>
+    <t>new Date().getWeekday();</t>
+  </si>
+  <si>
+    <t>Alias for getDay.</t>
+  </si>
+  <si>
+    <t>is(d,[margin] = 0)</t>
+  </si>
+  <si>
+    <t>Returns true if the date matches d. d will accept a date object, timestamp, or text format. In the case of objects and text formats, is will additionally compare based on the precision implied in the input. In the case of text formats d will use the currently set locale. margin allows an extra margin of error in milliseconds. See create for formats.</t>
+  </si>
+  <si>
+    <t>new Date().is('July')
+new Date().is('1776')
+new Date().is('today')
+new Date().is('weekday')
+new Date().is('July 4, 1776')
+new Date().is(-6106093200000)
+new Date().is(new Date(1776, 6, 4))</t>
+  </si>
+  <si>
+    <t>false
+false
+true
+true
+false
+false
+false</t>
+  </si>
+  <si>
+    <t>isAfter(d,[margin] = 0)</t>
+  </si>
+  <si>
+    <t>Returns true if the date is after d. margin is to allow extra margin of error in ms. d will accept a date object, timestamp, or string. If not specified, d is assumed to be now. See create for formats.</t>
+  </si>
+  <si>
+    <t>today.isAfter('tomorrow')
+today.isAfter('yesterday')</t>
+  </si>
+  <si>
+    <t>false
+true</t>
+  </si>
+  <si>
+    <t>isBefore(d,[margin] = 0)</t>
+  </si>
+  <si>
+    <t>Returns true if the date is before d. margin is to allow extra margin of error in ms. d will accept a date object, timestamp, or text format. If not specified, d is assumed to be now. See create for formats.</t>
+  </si>
+  <si>
+    <t>today.isBefore('tomorrow')
+today.isBefore('yesterday')</t>
+  </si>
+  <si>
+    <t>true
+false</t>
+  </si>
+  <si>
+    <t>isBetween(d1,d2,[margin] = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns true if the date is later or equal to d1 and before or equal to d2. margin is to allow extra margin of error in ms. d1 and d2 will accept a date object, timestamp, or text format. If not specified, they are assumed to be now. See create for formats.
+</t>
+  </si>
+  <si>
+    <t>new Date().isBetween('yesterday', 'tomorrow')
+new Date().isBetween('last year', '2 years ago')</t>
+  </si>
+  <si>
+    <t>isDay()</t>
+  </si>
+  <si>
+    <t>Returns true if the date falls on the specified day.</t>
+  </si>
+  <si>
+    <t>tomorrow.isToday()
+thursday.isTomorrow()
+yesterday.isWednesday()
+today.isWeekend()</t>
+  </si>
+  <si>
+    <t>false
+false
+false
+false</t>
+  </si>
+  <si>
+    <t>isToday
+isYesterday
+isTomorrow
+isWeekday
+isWeekend
+isSunday
+isMonday
+isTuesday
+isWednesday
+isThursday
+isFriday
+isSaturday</t>
+  </si>
+  <si>
+    <t>isFuture()</t>
+  </si>
+  <si>
+    <t>Returns true if the date is in the future.</t>
+  </si>
+  <si>
+    <t>lastWeek.isFuture()
+nextWeek.isFuture()</t>
+  </si>
+  <si>
+    <t>isLastUnit([localeCode])</t>
+  </si>
+  <si>
+    <t>Returns true if the date is last week, month, or year. This method takes an optional locale code for isLastWeek, which is locale dependent. The default locale code is en, which places Sunday at the beginning of the week. You can pass en-GB as a quick way to force Monday as the beginning of the week.</t>
+  </si>
+  <si>
+    <t>yesterday.isLastWeek()
+yesterday.isLastMonth()
+yesterday.isLastYear()</t>
+  </si>
+  <si>
+    <t>false
+false
+false</t>
+  </si>
+  <si>
+    <t>isLastWeek
+isLastMonth
+isLastYear</t>
+  </si>
+  <si>
+    <t>isLeapYear()</t>
+  </si>
+  <si>
+    <t>Returns true if the date is a leap year.</t>
+  </si>
+  <si>
+    <t>millenium.isLeapYear()</t>
+  </si>
+  <si>
+    <t>isNextUnit([localeCode])</t>
+  </si>
+  <si>
+    <t>Returns true if the date is next week, month, or year. This method takes an optional locale code for isNextWeek, which is locale dependent. The default locale code is en, which places Sunday at the beginning of the week. You can pass en-GB as a quick way to force Monday as the beginning of the week.</t>
+  </si>
+  <si>
+    <t>tomorrow.isNextWeek()
+tomorrow.isNextMonth()
+tomorrow.isNextYear()</t>
+  </si>
+  <si>
+    <t>isNextWeek
+isNextMonth
+isNextYear</t>
+  </si>
+  <si>
+    <t>isPast()</t>
+  </si>
+  <si>
+    <t>Returns true if the date is in the past.</t>
+  </si>
+  <si>
+    <t>lastWeek.isPast()
+nextWeek.isPast()</t>
+  </si>
+  <si>
+    <t>isThisUnit([localeCode])</t>
+  </si>
+  <si>
+    <t>Returns true if the date is this week, month, or year. This method takes an optional locale code for isThisWeek, which is locale dependent. The default locale code is en, which places Sunday at the beginning of the week. You can pass en-GB as a quick way to force Monday as the beginning of the week.</t>
+  </si>
+  <si>
+    <t>tomorrow.isThisWeek()
+tomorrow.isThisMonth()
+tomorrow.isThisYear()</t>
+  </si>
+  <si>
+    <t>true
+true
+true</t>
+  </si>
+  <si>
+    <t>isThisWeek
+isThisMonth
+isThisYear</t>
+  </si>
+  <si>
+    <t>isUTC()</t>
+  </si>
+  <si>
+    <t>Returns true if the date has no timezone offset. This will also return true for dates whose internal utc flag is set with setUTC. Even if the utc flag is set, getTimezoneOffset will always report the same thing as Javascript always reports that based on the environment's locale.</t>
+  </si>
+  <si>
+    <t>new Date().isUTC()
+new Date().setUTC(true).isUTC()</t>
+  </si>
+  <si>
+    <t>isValid()</t>
+  </si>
+  <si>
+    <t>Returns true if the date is valid.</t>
+  </si>
+  <si>
+    <t>new Date().isValid()
+new Date('flexor').isValid()</t>
+  </si>
+  <si>
+    <t>iso()</t>
+  </si>
+  <si>
+    <t>Alias for toISOString. Formats the string to ISO8601 format. This will always format as UTC time.</t>
+  </si>
+  <si>
+    <t>Date.create().iso()</t>
+  </si>
+  <si>
+    <t>"2025-10-03T07:51:09.950Z"</t>
+  </si>
+  <si>
+    <t>long([localeCode] = currentLocaleCode)</t>
+  </si>
+  <si>
+    <t>Outputs the date in the long format for the current locale. localeCode overrides the current locale code if passed.</t>
+  </si>
+  <si>
+    <t>new Date().long()
+new Date().long('es')</t>
+  </si>
+  <si>
+    <t>"October 3, 2025 10:51 AM"
+"3 de octubre de 2025 10:51"</t>
+  </si>
+  <si>
+    <t>medium([localeCode] = currentLocaleCode)</t>
+  </si>
+  <si>
+    <t>Outputs the date in the medium format for the current locale. localeCode overrides the current locale code if passed.</t>
+  </si>
+  <si>
+    <t>new Date().medium()
+new Date().medium('ja')</t>
+  </si>
+  <si>
+    <t>"October 3, 2025"
+"2025年10月3日"</t>
+  </si>
+  <si>
+    <t>relative([localeCode] = currentLocaleCode,[relativeFn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns the date in a text format relative to the current time, such as "5 minutes ago". relativeFn is a function that can be passed to provide more granular control over the resulting string. Its return value will be passed to format. If nothing is returned, the relative format will be used. relativeFn can be passed as the first argument in place of locale. For more about formats, see date formatting.
+</t>
+  </si>
+  <si>
+    <t>hourAgo.relative()
+jan.relative()
+jan.relative('ja')
+jan.relative(function(num, unit, ms, loc) {
+  // Return an absolute date for anything over 6 months.
+  if(unit == 6 &amp;&amp; num &gt; 6 || unit &gt; 6) {
+    return '{Month} {d}, {yyyy}';
+  }
+});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1 hour ago"
+"9 months ago"
+"9ヶ月前"
+"January 1, 2025"
+</t>
+  </si>
+  <si>
+    <t>relativeTo(d,localeCode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns the date in a text format relative to d, such as "5 minutes". d will accept a date object, timestamp, or string. localeCode applies to the method output, not d.
+</t>
+  </si>
+  <si>
+    <t>jan.relativeTo(jul)
+yesterday.relativeTo('today', 'ja')</t>
+  </si>
+  <si>
+    <t>"6 months"
+"1日"</t>
+  </si>
+  <si>
+    <t>reset([unit] = 'day',[localeCode] = currentLocaleCode)</t>
+  </si>
+  <si>
+    <t>Resets the date to the beginning of unit. This method effectively resets all smaller units, pushing the date to the beginning of unit. Default is day, which effectively resets the time. localeCode is provided for resetting weeks, which is locale dependent. This method modifies the date!</t>
+  </si>
+  <si>
+    <t>new Date().reset('day')
+new Date().reset('month')</t>
+  </si>
+  <si>
+    <t>October 3, 2025 12:00 AM
+October 1, 2025 12:00 AM</t>
+  </si>
+  <si>
+    <t>rewind(set,[reset] = false)</t>
+  </si>
+  <si>
+    <t>new Date().rewind({ year: 2 })
+new Date().rewind('2 weeks')
+new Date().rewind(0, 2, 3)
+new Date().rewind(86400000)</t>
+  </si>
+  <si>
+    <t>October 3, 2023 10:56 AM
+September 19, 2025 10:56 AM
+July 31, 2025 10:56 AM
+October 2, 2025 10:56 AM</t>
+  </si>
+  <si>
+    <t>set(set,[reset] = false)</t>
+  </si>
+  <si>
+    <t>Sets the date object. This method accepts multiple formats including a single number as a timestamp, an object, or enumerated arguments. If reset is true, any units more specific than those passed will be reset.</t>
+  </si>
+  <si>
+    <t>new Date().set({year:2011,month:11,day:31})
+new Date().set(2011, 11, 31)
+new Date().set(86400000)
+new Date().set({year:2004,month:6}, true)</t>
+  </si>
+  <si>
+    <t>December 31, 2011 10:57 AM
+December 31, 2011 10:57 AM
+January 2, 1970 3:00 AM
+July 1, 2004 12:00 AM</t>
+  </si>
+  <si>
+    <t>setWeekday(dow)</t>
+  </si>
+  <si>
+    <t>Sets the weekday of the date, starting with Sunday at 0. This method modifies the date!</t>
+  </si>
+  <si>
+    <t>d = new Date(); d.setWeekday(1); d;
+d = new Date(); d.setWeekday(6); d;</t>
+  </si>
+  <si>
+    <t>September 29, 2025 10:59 AM
+October 4, 2025 10:59 AM</t>
+  </si>
+  <si>
+    <t>short([localeCode] = currentLocaleCode)</t>
+  </si>
+  <si>
+    <t>Outputs the date in the short format for the current locale. localeCode overrides the current locale code if passed.</t>
+  </si>
+  <si>
+    <t>new Date().short()
+new Date().short('fi')</t>
+  </si>
+  <si>
+    <t>"10/03/2025"
+"3.10.2025"</t>
+  </si>
+  <si>
+    <t>toISOString()</t>
+  </si>
+  <si>
+    <t>Formats the string to ISO8601 format. This will always format as UTC time. This method is provided as a polyfill.</t>
+  </si>
+  <si>
+    <t>Date.create().toISOString()</t>
+  </si>
+  <si>
+    <t>"2025-10-03T08:00:54.684Z"</t>
+  </si>
+  <si>
+    <t>toJSON([key])</t>
+  </si>
+  <si>
+    <t>Returns a JSON representation of the date. This is effectively an alias for toISOString. Will always return the date in UTC time. key is ignored. This method is provided as a polyfill.</t>
+  </si>
+  <si>
+    <t>`https://sugarjs.com/docs/#/Polyfills</t>
+  </si>
+  <si>
+    <t>Date.create().toJSON()</t>
+  </si>
+  <si>
+    <t>"2025-10-03T08:01:12.702Z"</t>
+  </si>
+  <si>
+    <t>unitsAgo()</t>
+  </si>
+  <si>
+    <t>Returns the time ago in the appropriate unit.</t>
+  </si>
+  <si>
+    <t>lastYear.millisecondsAgo()
+lastYear.daysAgo()
+lastYear.yearsAgo()</t>
+  </si>
+  <si>
+    <t>31536068986
+365
+1</t>
+  </si>
+  <si>
+    <t>millisecondsAgo
+secondsAgo
+minutesAgo
+hoursAgo
+daysAgo
+weeksAgo
+monthsAgo
+yearsAgo</t>
+  </si>
+  <si>
+    <t>unitsFromNow()</t>
+  </si>
+  <si>
+    <t>Returns the time from now in the appropriate unit.</t>
+  </si>
+  <si>
+    <t>nextYear.millisecondsFromNow()
+nextYear.daysFromNow()
+nextYear.yearsFromNow()</t>
+  </si>
+  <si>
+    <t>31535931001
+364
+0</t>
+  </si>
+  <si>
+    <t>millisecondsFromNow
+secondsFromNow
+minutesFromNow
+hoursFromNow
+daysFromNow
+weeksFromNow
+monthsFromNow
+yearsFromNow</t>
+  </si>
+  <si>
+    <t>unitsSince(d,options)</t>
+  </si>
+  <si>
+    <t>Returns the time since d. d will accept a date object, timestamp, or string. If not specified, d is assumed to be now. unitsAgo is provided as an alias to make this more readable when d is assumed to be the current date. options can be an object or a locale code as a string. See create for more.</t>
+  </si>
+  <si>
+    <t>new Date().millisecondsSince('1 hour ago')
+new Date().daysSince('1 week ago')
+new Date().yearsSince('15 years ago')
+lastYear.yearsAgo()</t>
+  </si>
+  <si>
+    <t>3600000
+7
+15
+1</t>
+  </si>
+  <si>
+    <t>`https://sugarjs.com/docs/#/Date/create
+millisecondsSince
+secondsSince
+minutesSince
+hoursSince
+daysSince
+weeksSince
+monthsSince
+yearsSince</t>
+  </si>
+  <si>
+    <t>unitsUntil([d],[options])</t>
+  </si>
+  <si>
+    <t>Returns the time until d. d will accept a date object, timestamp, or string. If not specified, d is assumed to be now. unitsFromNow is provided as an alias to make this more readable when d is assumed to be the current date. options can be an object or a locale code as a string. See create for more.</t>
+  </si>
+  <si>
+    <t>new Date().millisecondsUntil('1 hour from now')
+new Date().daysUntil('1 week from now')
+new Date().yearsUntil('15 years from now')
+nextYear.yearsFromNow()</t>
+  </si>
+  <si>
+    <t>`https://sugarjs.com/docs/#/Date/create
+millisecondsUntil
+secondsUntil
+minutesUntil
+hoursUntil
+daysUntil
+weeksUntil
+monthsUntil
+yearsUntil</t>
+  </si>
+  <si>
+    <t>3600000
+7
+15
+0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alternate date constructor which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accepts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text formats</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 
+a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>objects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 
+or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>another date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If no argument is given, the date is assumed to be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The second argument</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can either be an options object or a locale code as a shortcut. 
+For more, see date parsing.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">`https://sugarjs.com/docs/#/DateParsing
+</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>option 1</t>
+  </si>
+  <si>
+    <t>option 2</t>
+  </si>
+  <si>
+    <t>option 3</t>
+  </si>
+  <si>
+    <t>option 4</t>
+  </si>
+  <si>
+    <t>option 5</t>
+  </si>
+  <si>
+    <t>option 6</t>
+  </si>
+  <si>
+    <t>option 7</t>
+  </si>
+  <si>
+    <r>
+      <t>Date.create()
+Date.create('July')
+Date.create('1776') 
+Date.create('today')
+Date.create('Wednesday') 
+Date.create('next Friday')
+Date.create('July 4, 1776')
+Date.create(-446806800000)
+Date.create('1776年07月04日', 'ja')
+Date.create('August', {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>past</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: true})
+Date.create('August', {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>future</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: true})
+Date.create('Thursday', {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fromUTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: true}) </t>
+    </r>
+  </si>
+  <si>
+    <t>September 3, 2025 11:16 AM (date now)
+July 1, 2025 12:00 AM
+January 1, 1776 12:00 AM
+August 27, 2025 12:00 AM
+August 27, 2025 12:00 AM
+September 5, 2025 12:00 AM
+July 4, 1776 12:00 AM
+November 4, 1955 6:00 PM
+July 4, 1776 12:00 AM
+August 1, 2025 12:00 AM
+August 1, 2026 12:00 AM
+August 28, 2025 3:00 AM</t>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>Основное использование</t>
+  </si>
+  <si>
+    <t>// Создание даты
+const date = new Date(2023, 9, 15, 14, 30, 45); // 15 октября 2023, 14:30:45
+// Стандартный JavaScript
+date.getFullYear();  // 2023
+date.getMonth();     // 9 (октябрь)
+date.getDate();      // 15
+// Sugar.js расширение
+date.get('year');    // 2023
+date.get('month');   // 10 (более интуитивно)
+date.get('day');     // 15</t>
+  </si>
+  <si>
+    <t>Параметр [options]</t>
+  </si>
+  <si>
+    <t>const date = new Date(2023, 9, 15, 14, 30, 45);
+// Получение различных компонентов
+date.get('year');           // 2023
+date.get('month');          // 10 (1-12)
+date.get('month', { pad: true }); // '10'
+date.get('month', { format: 'MM' }); // '10'
+date.get('day');            // 15
+date.get('day', { pad: true }); // '15'
+date.get('hours');          // 14
+date.get('minutes');        // 30
+date.get('seconds');        // 45</t>
+  </si>
+  <si>
+    <t>Основные опции:</t>
+  </si>
+  <si>
+    <t>Опция locale</t>
+  </si>
+  <si>
+    <t>const date = new Date(2023, 9, 15);
+// Получение названия месяца на разных языках
+date.get('month', { locale: 'en', format: 'MMMM' }); // 'October'
+date.get('month', { locale: 'ru', format: 'MMMM' }); // 'октября'
+date.get('month', { locale: 'fr', format: 'MMMM' }); // 'octobre'</t>
+  </si>
+  <si>
+    <t>Опция format</t>
+  </si>
+  <si>
+    <t>const date = new Date(2023, 9, 15, 14, 30);
+// Различные форматы вывода
+date.get('month', { format: 'M' });     // '10' (число)
+date.get('month', { format: 'MM' });    // '10' (с лидирующим нулем)
+date.get('month', { format: 'MMM' });   // 'Oct' (сокращение)
+date.get('month', { format: 'MMMM' });  // 'October' (полное название)
+date.get('weekday', { format: 'ddd' }); // 'Sun' (сокращение дня недели)
+date.get('weekday', { format: 'dddd' }); // 'Sunday' (полное название)</t>
+  </si>
+  <si>
+    <t>Опция pad</t>
+  </si>
+  <si>
+    <t>const date = new Date(2023, 0, 5, 9, 5, 7); // 5 января 2023, 09:05:07
+date.get('month', { pad: true });    // '01'
+date.get('day', { pad: true });      // '05'
+date.get('hours', { pad: true });    // '09'
+date.get('minutes', { pad: true });  // '05'
+date.get('seconds', { pad: true });  // '07'</t>
+  </si>
+  <si>
+    <t>Специальные компоненты</t>
+  </si>
+  <si>
+    <t>const date = new Date(2023, 9, 15);
+date.get('weekday');        // 0 (воскресенье)
+date.get('weekday', { format: 'dddd' }); // 'Sunday'
+date.get('ymd');            // '2023-10-15' (ISO формат)
+date.get('time');           // '14:30:45' (только время)
+// Квартал года
+date.get('quarter');        // 4 (четвертый квартал)
+// Неделя года
+date.get('week');           // 42 (неделя года)</t>
+  </si>
+  <si>
+    <t>Практические примеры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const now = new Date();
+// Форматирование даты
+const formattedDate = `${now.get('day', { pad: true })}.${now.get('month', { pad: true })}.${now.get('year')}`;
+// "15.10.2023"
+// Получение времени
+const time = `${now.get('hours', { pad: true })}:${now.get('minutes', { pad: true })}`;
+// "14:30"
+// Локализованный вывод
+const monthName = now.get('month', { 
+  locale: 'ru', 
+  format: 'MMMM' 
+});
+// "октябрь"
+// Полная дата с днем недели
+const fullDate = `${now.get('weekday', { format: 'dddd' })}, ${now.get('day')} ${now.get('month', { format: 'MMMM' })} ${now.get('year')}`;
+// "Sunday, 15 October 2023"
+</t>
+  </si>
+  <si>
+    <t>Get Date as timestamp</t>
+  </si>
+  <si>
+    <t>Date.range(jan, may)
+Date.range('today', 'tomorrow')
+Date.range('now', '5 days ago')
+Date.range('last Monday')
+Date.range('Monday to Friday')
+Date.range('tomorrow from 3pm to 5pm')
+Date.range('1 hour starting at 5pm Tuesday')</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Creates a new date range between start and end. 
+Arguments may be either dates or strings which will be forwarded to the date constructor (create will be used if present in the build). 
+If either </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are undefined, they will default to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>current date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 
+This method also accepts an alternate syntax of a single string describing the range in natural language.</t>
+    </r>
+  </si>
+  <si>
+    <t>['2024-01-01', '2024-01-02', ..., '2024-04-30', '2024-05-01']</t>
+  </si>
+  <si>
+    <t>Create Array of Dates</t>
+  </si>
+  <si>
+    <t>Country Hash working</t>
+  </si>
+  <si>
+    <t>// С шагом в 1 месяц
+const monthly = Date.range(jan, may, '1 month');
+// С шагом в 1 неделю
+const weekly = Date.range(jan, may, '1 week');</t>
+  </si>
+  <si>
+    <t>['2024-01-01', '2024-02-01', '2024-03-01', '2024-04-01', '2024-05-01']
+даты каждого понедельника (или другого дня недели) в диапазоне</t>
+  </si>
+  <si>
+    <t>// Исключая конечную дату
+const exclusive = Date.range(jan, may, '1 month', { exclusive: true });
+// С шагом в 2 месяца
+const biMonthly = Date.range(jan, may, '2 months');</t>
+  </si>
+  <si>
+    <t>['2024-01-01', '2024-02-01', '2024-03-01', '2024-04-01']
+['2024-01-01', '2024-03-01', '2024-05-01']</t>
+  </si>
+  <si>
+    <t>const jan = new Date(2024, 0, 1);  
+const may = new Date(2024, 4, 1);  
+// По дням
+const dailyRange = Date.range(jan, may);
+console.log(dailyRange.length); 
+// По месяцам
+const monthlyRange = Date.range(jan, may, '1 month');
+console.log(monthlyRange.map(d =&gt; d.format('{MM}/{dd}/{yyyy}')));
+// С исключением конечной даты
+const rangeExclusive = Date.range(jan, may, '1 month', { exclusive: true });
+console.log(rangeExclusive.map(d =&gt; d.format('{MM}/{dd}/{yyyy}')));
+// ['01/01/2024', '02/01/2024', '03/01/2024', '04/01/2024']</t>
+  </si>
+  <si>
+    <t>1 января 2024
+1 мая 2024
+~122 дней (январь-апрель + 1 мая)
+['01/01/2024', '02/01/2024', '03/01/2024', '04/01/2024', '05/01/2024']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Date().addYears(5)
+new Date().addDays(5)
+new Date().addDays(5, true)
+</t>
+  </si>
+  <si>
+    <t>October 3, 2030 9:59 AM
+October 8, 2025 9:59 AM
+October 8, 2025 12:00 AM</t>
+  </si>
+  <si>
+    <t>addMilliseconds
+addSeconds
+addMinutes
+addHours
+addDays
+addWeeks
+addMonths
+addYears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set the date to the beginning of week as defined by ISO8601. Note that this standard places Monday at the start of the week. This method modifies the date!
+</t>
+  </si>
+  <si>
+    <t>Create Date relative NOW</t>
+  </si>
+  <si>
+    <t>Copy some Date</t>
+  </si>
+  <si>
+    <t>Returns the number of days in the date's month.</t>
+  </si>
+  <si>
+    <t>Get number of days from Date's month</t>
+  </si>
+  <si>
+    <t>Format given Date</t>
+  </si>
+  <si>
+    <t>Get week index from Date</t>
+  </si>
+  <si>
+    <t>Get Time diff from UTC belt</t>
+  </si>
+  <si>
+    <t>Get day index in week from Date</t>
+  </si>
+  <si>
+    <t>Bollean - Checking Date created correctly</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shifts the date </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>backward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 
+set accepts multiple formats including an object, a string in the format "3 days", a single number as milliseconds, or enumerated parameters (as with the Date constructor). If reset is true, any units more specific than those passed will be reset. This method modifies the date!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shifts the date </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>forward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 
+set accepts multiple formats including an object, a string in the format "3 days", a single number as milliseconds, or enumerated parameters (as with the Date constructor). If reset is true, any units more specific than those passed will be reset. This method modifies the date!</t>
+    </r>
+  </si>
+  <si>
+    <t>From Date ot String/JSON</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calculate (add,...)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to Date</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9826,7 +11102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -9887,6 +11163,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10232,7 +11514,7 @@
     </row>
     <row r="4" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -10256,11 +11538,11 @@
     </row>
     <row r="5" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10282,13 +11564,13 @@
     </row>
     <row r="6" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -10310,7 +11592,7 @@
     </row>
     <row r="7" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -10336,7 +11618,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -11406,10 +12688,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C15" s="19" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -11979,7 +13261,7 @@
         <v>69</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>67</v>
@@ -11996,7 +13278,7 @@
         <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>105</v>
@@ -12010,7 +13292,7 @@
         <v>43</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>45</v>
@@ -12555,10 +13837,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:W98"/>
+  <dimension ref="A2:W159"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C50" sqref="C49:C50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12592,165 +13874,120 @@
     <col min="29" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="18" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:23" s="7" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
@@ -12767,18 +14004,22 @@
       <c r="V21" s="2"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
@@ -12795,18 +14036,22 @@
       <c r="V22" s="2"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1"/>
@@ -12824,17 +14069,21 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="B24" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
       <c r="I24" s="1"/>
@@ -12852,17 +14101,21 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="1"/>
@@ -12880,17 +14133,21 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="B26" s="2" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
       <c r="I26" s="1"/>
@@ -12907,22 +14164,14 @@
       <c r="V26" s="2"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>260</v>
-      </c>
+    <row r="27" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
       <c r="I27" s="1"/>
@@ -12939,22 +14188,20 @@
       <c r="V27" s="2"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>246</v>
+        <v>621</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>247</v>
+        <v>623</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>248</v>
+        <v>624</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>260</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
       <c r="I28" s="1"/>
@@ -12971,21 +14218,21 @@
       <c r="V28" s="2"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>250</v>
+        <v>672</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>251</v>
+        <v>673</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>261</v>
+        <v>662</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>260</v>
+        <v>663</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="2"/>
@@ -13005,20 +14252,18 @@
     </row>
     <row r="30" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>252</v>
+        <v>664</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>253</v>
+        <v>665</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>258</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="G30" s="1"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
@@ -13035,18 +14280,18 @@
       <c r="V30" s="2"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+    <row r="31" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>257</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="G31" s="1"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
@@ -13064,21 +14309,17 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>266</v>
+        <v>667</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>269</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="G32" s="1"/>
       <c r="H32" s="2"/>
       <c r="I32" s="1"/>
@@ -13095,31 +14336,44 @@
       <c r="V32" s="2"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>270</v>
-      </c>
+    <row r="33" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>272</v>
+        <v>668</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>269</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="D34" s="2" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="E34" s="2"/>
       <c r="G34" s="1"/>
@@ -13138,15 +14392,17 @@
       <c r="V34" s="2"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>276</v>
-      </c>
+    <row r="35" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="G35" s="1"/>
       <c r="H35" s="2"/>
@@ -13164,15 +14420,17 @@
       <c r="V35" s="2"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>277</v>
-      </c>
+    <row r="36" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+        <v>671</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="G36" s="1"/>
       <c r="H36" s="2"/>
@@ -13190,16 +14448,22 @@
       <c r="V36" s="2"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>278</v>
+        <v>525</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>526</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="2"/>
       <c r="I37" s="1"/>
@@ -13216,16 +14480,16 @@
       <c r="V37" s="2"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>293</v>
-      </c>
+    <row r="38" spans="1:23" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="E38" s="4"/>
       <c r="G38" s="1"/>
       <c r="H38" s="2"/>
       <c r="I38" s="1"/>
@@ -13242,18 +14506,14 @@
       <c r="V38" s="2"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+    <row r="39" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
       <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
@@ -13270,16 +14530,16 @@
       <c r="V39" s="2"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>294</v>
-      </c>
+    <row r="40" spans="1:23" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="E40" s="4"/>
       <c r="G40" s="1"/>
       <c r="H40" s="2"/>
       <c r="I40" s="1"/>
@@ -13296,16 +14556,16 @@
       <c r="V40" s="2"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>295</v>
-      </c>
+    <row r="41" spans="1:23" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="E41" s="4"/>
       <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
@@ -13322,18 +14582,16 @@
       <c r="V41" s="2"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+    <row r="42" spans="1:23" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="E42" s="4"/>
       <c r="G42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
@@ -13350,20 +14608,16 @@
       <c r="V42" s="2"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E43" s="2"/>
+    <row r="43" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="E43" s="4"/>
       <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
@@ -13380,20 +14634,16 @@
       <c r="V43" s="2"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E44" s="2"/>
+    <row r="44" spans="1:23" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="E44" s="4"/>
       <c r="G44" s="1"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
@@ -13410,20 +14660,16 @@
       <c r="V44" s="2"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E45" s="2"/>
+    <row r="45" spans="1:23" s="7" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="E45" s="4"/>
       <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
@@ -13440,15 +14686,13 @@
       <c r="V45" s="2"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>29</v>
+    <row r="46" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>706</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>306</v>
-      </c>
+      <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="G46" s="1"/>
       <c r="H46" s="2"/>
@@ -13466,11 +14710,19 @@
       <c r="V46" s="2"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+    <row r="47" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>705</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="G47" s="1"/>
       <c r="H47" s="2"/>
@@ -13488,11 +14740,19 @@
       <c r="V47" s="2"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+    <row r="48" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="G48" s="1"/>
       <c r="H48" s="2"/>
@@ -13510,11 +14770,19 @@
       <c r="V48" s="2"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+    <row r="49" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>509</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="G49" s="1"/>
       <c r="H49" s="2"/>
@@ -13532,11 +14800,19 @@
       <c r="V49" s="2"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+    <row r="50" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>513</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="G50" s="1"/>
       <c r="H50" s="2"/>
@@ -13554,11 +14830,19 @@
       <c r="V50" s="2"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+    <row r="51" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>626</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="G51" s="1"/>
       <c r="H51" s="2"/>
@@ -13577,7 +14861,9 @@
       <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
+      <c r="A52" s="15" t="s">
+        <v>690</v>
+      </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -13598,12 +14884,22 @@
       <c r="V52" s="2"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+    <row r="53" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="G53" s="1"/>
       <c r="H53" s="2"/>
       <c r="I53" s="1"/>
@@ -13620,23 +14916,30 @@
       <c r="V53" s="2"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="7"/>
+    <row r="54" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>646</v>
+      </c>
       <c r="G54" s="1"/>
       <c r="H54" s="2"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="7"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-      <c r="P54" s="7"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -13645,23 +14948,30 @@
       <c r="V54" s="2"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="7"/>
+    <row r="55" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>651</v>
+      </c>
       <c r="G55" s="1"/>
       <c r="H55" s="2"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="7"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="7"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -13670,23 +14980,30 @@
       <c r="V55" s="2"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="7"/>
+    <row r="56" spans="1:23" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>656</v>
+      </c>
       <c r="G56" s="1"/>
       <c r="H56" s="2"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="7"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="P56" s="7"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -13695,23 +15012,30 @@
       <c r="V56" s="2"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="7"/>
+    <row r="57" spans="1:23" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>660</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="2"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="7"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="7"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -13720,23 +15044,22 @@
       <c r="V57" s="2"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
+    <row r="58" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>710</v>
+      </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="7"/>
       <c r="G58" s="1"/>
       <c r="H58" s="2"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="7"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-      <c r="P58" s="7"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
@@ -13745,23 +15068,30 @@
       <c r="V58" s="2"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="7"/>
+    <row r="59" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="2"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="7"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="7"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
@@ -13770,23 +15100,28 @@
       <c r="V59" s="2"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+    <row r="60" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>522</v>
+      </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="7"/>
       <c r="G60" s="1"/>
       <c r="H60" s="2"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="7"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="7"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
@@ -13795,11 +15130,19 @@
       <c r="V60" s="2"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+    <row r="61" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>599</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="7"/>
       <c r="G61" s="1"/>
@@ -13820,73 +15163,52 @@
       <c r="V61" s="2"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+    <row r="62" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>603</v>
+      </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="1"/>
-    </row>
-    <row r="63" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+    </row>
+    <row r="63" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>630</v>
+      </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="1"/>
-    </row>
-    <row r="64" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
+    </row>
+    <row r="64" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="23" t="s">
+        <v>718</v>
+      </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="7"/>
       <c r="G64" s="1"/>
       <c r="H64" s="2"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="7"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="7"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
@@ -13895,23 +15217,30 @@
       <c r="V64" s="2"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="7"/>
+    <row r="65" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>704</v>
+      </c>
       <c r="G65" s="1"/>
       <c r="H65" s="2"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="7"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="P65" s="7"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
@@ -13920,23 +15249,24 @@
       <c r="V65" s="2"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+    <row r="66" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="7"/>
       <c r="G66" s="1"/>
       <c r="H66" s="2"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="7"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-      <c r="P66" s="7"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
@@ -13945,23 +15275,24 @@
       <c r="V66" s="2"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+    <row r="67" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="7"/>
       <c r="G67" s="1"/>
       <c r="H67" s="2"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="7"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
-      <c r="P67" s="7"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
@@ -13970,23 +15301,24 @@
       <c r="V67" s="2"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+    <row r="68" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="7"/>
       <c r="G68" s="1"/>
       <c r="H68" s="2"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="7"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="7"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
@@ -13995,23 +15327,24 @@
       <c r="V68" s="2"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+    <row r="69" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="7"/>
       <c r="G69" s="1"/>
       <c r="H69" s="2"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-      <c r="K69" s="7"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-      <c r="P69" s="7"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
@@ -14020,23 +15353,26 @@
       <c r="V69" s="2"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+    <row r="70" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="7"/>
       <c r="G70" s="1"/>
       <c r="H70" s="2"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="7"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-      <c r="P70" s="7"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
@@ -14045,23 +15381,24 @@
       <c r="V70" s="2"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+    <row r="71" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="7"/>
       <c r="G71" s="1"/>
       <c r="H71" s="2"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
-      <c r="K71" s="7"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
-      <c r="P71" s="7"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
@@ -14070,138 +15407,1234 @@
       <c r="V71" s="2"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
+    <row r="72" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="1"/>
+    </row>
+    <row r="73" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="1"/>
+    </row>
+    <row r="74" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>716</v>
+      </c>
       <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="1"/>
+    </row>
+    <row r="75" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>715</v>
+      </c>
       <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="1"/>
+    </row>
+    <row r="76" spans="1:23" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="1"/>
+    </row>
+    <row r="77" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>611</v>
+      </c>
       <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="1"/>
+    </row>
+    <row r="78" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="1"/>
+    </row>
+    <row r="79" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="1"/>
+    </row>
+    <row r="80" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="2"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="1"/>
+    </row>
+    <row r="81" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="1"/>
+    </row>
+    <row r="82" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>708</v>
+      </c>
       <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="1"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A83" s="11" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>531</v>
+      </c>
       <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="1"/>
+    </row>
+    <row r="85" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="1"/>
+    </row>
+    <row r="86" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="1"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A87" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>539</v>
+      </c>
       <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="1"/>
+    </row>
+    <row r="89" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>544</v>
+      </c>
       <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="2"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="1"/>
+    </row>
+    <row r="90" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="1"/>
+    </row>
+    <row r="91" spans="1:23" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>546</v>
+      </c>
       <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="1"/>
+    </row>
+    <row r="92" spans="1:23" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>550</v>
+      </c>
       <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="1"/>
+    </row>
+    <row r="93" spans="1:23" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="1"/>
+    </row>
+    <row r="94" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F94" s="7"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="8"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="1"/>
+    </row>
+    <row r="95" spans="1:23" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="1"/>
+    </row>
+    <row r="96" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>566</v>
+      </c>
       <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="8"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="1"/>
+    </row>
+    <row r="97" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>581</v>
+      </c>
       <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D98" s="2"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="1"/>
+    </row>
+    <row r="98" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F98" s="7"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="1"/>
+    </row>
+    <row r="99" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="1"/>
+    </row>
+    <row r="100" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F100" s="7"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="8"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="1"/>
+    </row>
+    <row r="101" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="8"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="1"/>
+    </row>
+    <row r="102" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="1"/>
+    </row>
+    <row r="103" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="8"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="1"/>
+    </row>
+    <row r="104" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="8"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="1"/>
+    </row>
+    <row r="105" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="8"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="1"/>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A106" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A109" s="15" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G110" s="1"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="1"/>
+    </row>
+    <row r="111" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="8"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="1"/>
+    </row>
+    <row r="112" spans="1:23" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="8"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="1"/>
+    </row>
+    <row r="113" spans="1:23" s="7" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="8"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="1"/>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D117" s="2"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -14217,8 +16650,8 @@
   </sheetPr>
   <dimension ref="A2:AB100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14255,12 +16688,12 @@
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -14270,13 +16703,13 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="B5" s="20"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B6" s="21"/>
     </row>
@@ -14300,7 +16733,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="B10" s="20"/>
     </row>
@@ -14311,18 +16744,18 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="B13" s="21"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B14" s="20"/>
     </row>
@@ -14351,7 +16784,7 @@
     </row>
     <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -14359,37 +16792,37 @@
     </row>
     <row r="19" spans="1:23" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:23" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="F21" s="7"/>
     </row>
@@ -14401,115 +16834,115 @@
     </row>
     <row r="23" spans="1:23" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:23" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:23" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:23" s="2" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:23" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:23" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:23" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -14536,19 +16969,19 @@
     </row>
     <row r="31" spans="1:23" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="1"/>
@@ -14573,10 +17006,10 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="7"/>
@@ -14602,10 +17035,10 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="7"/>
@@ -14631,10 +17064,10 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="7"/>
@@ -14660,10 +17093,10 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="7"/>
@@ -14687,19 +17120,19 @@
     </row>
     <row r="36" spans="1:23" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="1"/>
@@ -14724,10 +17157,10 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="7"/>
@@ -14753,10 +17186,10 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="7"/>
@@ -14782,10 +17215,10 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="7"/>
@@ -14811,10 +17244,10 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="7"/>
@@ -14838,19 +17271,19 @@
     </row>
     <row r="41" spans="1:23" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="1"/>
@@ -14875,10 +17308,10 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="7"/>
@@ -14904,10 +17337,10 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="7"/>
@@ -14933,10 +17366,10 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="7"/>
@@ -14962,10 +17395,10 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="7"/>
@@ -14989,16 +17422,16 @@
     </row>
     <row r="46" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="7"/>
@@ -15022,16 +17455,16 @@
     </row>
     <row r="47" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="7"/>
@@ -15055,16 +17488,16 @@
     </row>
     <row r="48" spans="1:23" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="1"/>
@@ -15087,16 +17520,16 @@
     </row>
     <row r="49" spans="1:28" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="1"/>
@@ -15119,7 +17552,7 @@
     </row>
     <row r="50" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -15149,16 +17582,16 @@
         <v>41</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="1"/>
@@ -15181,16 +17614,16 @@
     </row>
     <row r="52" spans="1:28" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="E52" s="2"/>
       <c r="G52" s="1"/>
@@ -15222,13 +17655,13 @@
         <v>196</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="1"/>
@@ -15284,10 +17717,10 @@
         <v>14</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="1"/>
@@ -15310,16 +17743,16 @@
     </row>
     <row r="56" spans="1:28" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="7"/>
@@ -15343,16 +17776,16 @@
     </row>
     <row r="57" spans="1:28" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="7"/>
@@ -15376,16 +17809,16 @@
     </row>
     <row r="58" spans="1:28" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="7"/>
@@ -15409,19 +17842,19 @@
     </row>
     <row r="59" spans="1:28" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="1"/>
@@ -15444,19 +17877,19 @@
     </row>
     <row r="60" spans="1:28" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="1"/>
@@ -15479,19 +17912,19 @@
     </row>
     <row r="61" spans="1:28" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="1"/>
@@ -15514,16 +17947,16 @@
     </row>
     <row r="62" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E62" s="2"/>
     </row>
@@ -15559,13 +17992,13 @@
         <v>25</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="7"/>
@@ -15589,19 +18022,19 @@
     </row>
     <row r="65" spans="1:28" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="1"/>
@@ -15626,11 +18059,11 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="17" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="1"/>
@@ -15659,10 +18092,10 @@
         <v>206</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="E67" s="2"/>
       <c r="G67" s="1"/>
@@ -15688,19 +18121,19 @@
     </row>
     <row r="68" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69" spans="1:28" ht="72" x14ac:dyDescent="0.3">
@@ -15708,33 +18141,33 @@
         <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.3">
@@ -15746,53 +18179,53 @@
     </row>
     <row r="72" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="E75" s="2"/>
     </row>
@@ -15807,58 +18240,58 @@
     </row>
     <row r="77" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -15866,10 +18299,10 @@
     <row r="81" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -15877,26 +18310,26 @@
     <row r="82" spans="1:28" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:28" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:28" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.3">
@@ -15904,16 +18337,16 @@
         <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="2"/>
@@ -15938,19 +18371,19 @@
     </row>
     <row r="85" spans="1:28" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="2"/>
@@ -15975,7 +18408,7 @@
     </row>
     <row r="86" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -16004,155 +18437,155 @@
     </row>
     <row r="87" spans="1:28" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:28" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="C96" s="2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="E100" s="2"/>
     </row>

--- a/4 четверть_13_JavaScript_sugarJS.xlsx
+++ b/4 четверть_13_JavaScript_sugarJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FAD3F1-49CC-4D4D-B367-F5C9670C3943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C75063-1982-450E-B883-6F6BF9B5C55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="-19650" windowWidth="23010" windowHeight="17460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sugarjs" sheetId="20" r:id="rId1"/>
@@ -10870,12 +10870,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11100,7 +11108,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11113,50 +11121,50 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -11165,10 +11173,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13837,10 +13845,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:W159"/>
+  <dimension ref="A2:W152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13875,79 +13883,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>695</v>
+      <c r="A2" s="15" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>710</v>
+      <c r="A6" s="23" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>718</v>
+      <c r="A7" s="15" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>709</v>
+      <c r="A9" s="11" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>711</v>
+      <c r="A10" s="15" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>712</v>
+      <c r="A11" s="11" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>713</v>
+      <c r="A12" s="15" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>162</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>694</v>
-      </c>
+      <c r="A16" s="11" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
@@ -13969,25 +13980,44 @@
       <c r="T18" s="5"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>695</v>
-      </c>
+    <row r="20" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>621</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>623</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>217</v>
+        <v>624</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>249</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
@@ -14004,21 +14034,21 @@
       <c r="V21" s="2"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>234</v>
+        <v>672</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>235</v>
+        <v>673</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>252</v>
+        <v>662</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>249</v>
+        <v>663</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="2"/>
@@ -14036,22 +14066,20 @@
       <c r="V22" s="2"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>236</v>
+        <v>664</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>237</v>
+        <v>665</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>249</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1"/>
@@ -14068,22 +14096,18 @@
       <c r="V23" s="2"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>239</v>
-      </c>
+    <row r="24" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>240</v>
+        <v>666</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>249</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
       <c r="I24" s="1"/>
@@ -14101,21 +14125,17 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>254</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>255</v>
+        <v>667</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>258</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="1"/>
@@ -14132,22 +14152,18 @@
       <c r="V25" s="2"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>259</v>
-      </c>
+    <row r="26" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>261</v>
+        <v>668</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>258</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
       <c r="I26" s="1"/>
@@ -14164,13 +14180,17 @@
       <c r="V26" s="2"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+    <row r="27" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
@@ -14188,18 +14208,16 @@
       <c r="V27" s="2"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>621</v>
-      </c>
+    <row r="28" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>623</v>
+        <v>670</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>624</v>
+        <v>229</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>622</v>
+        <v>230</v>
       </c>
       <c r="E28" s="2"/>
       <c r="G28" s="1"/>
@@ -14218,22 +14236,18 @@
       <c r="V28" s="2"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>218</v>
-      </c>
+    <row r="29" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>673</v>
+        <v>231</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>663</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="G29" s="1"/>
       <c r="H29" s="2"/>
       <c r="I29" s="1"/>
@@ -14250,20 +14264,22 @@
       <c r="V29" s="2"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>664</v>
+        <v>525</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>665</v>
+        <v>528</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>219</v>
+        <v>529</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>526</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
@@ -14280,18 +14296,16 @@
       <c r="V30" s="2"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E31" s="2"/>
+    <row r="31" spans="1:23" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="E31" s="4"/>
       <c r="G31" s="1"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
@@ -14308,18 +14322,14 @@
       <c r="V31" s="2"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E32" s="2"/>
+    <row r="32" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
       <c r="G32" s="1"/>
       <c r="H32" s="2"/>
       <c r="I32" s="1"/>
@@ -14336,18 +14346,16 @@
       <c r="V32" s="2"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E33" s="2"/>
+    <row r="33" spans="1:23" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="E33" s="4"/>
       <c r="G33" s="1"/>
       <c r="H33" s="2"/>
       <c r="I33" s="1"/>
@@ -14364,18 +14372,16 @@
       <c r="V33" s="2"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E34" s="2"/>
+    <row r="34" spans="1:23" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="E34" s="4"/>
       <c r="G34" s="1"/>
       <c r="H34" s="2"/>
       <c r="I34" s="1"/>
@@ -14392,18 +14398,16 @@
       <c r="V34" s="2"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E35" s="2"/>
+    <row r="35" spans="1:23" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="G35" s="1"/>
       <c r="H35" s="2"/>
       <c r="I35" s="1"/>
@@ -14420,18 +14424,16 @@
       <c r="V35" s="2"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E36" s="2"/>
+    <row r="36" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="E36" s="4"/>
       <c r="G36" s="1"/>
       <c r="H36" s="2"/>
       <c r="I36" s="1"/>
@@ -14448,22 +14450,16 @@
       <c r="V36" s="2"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>526</v>
-      </c>
+    <row r="37" spans="1:23" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="G37" s="1"/>
       <c r="H37" s="2"/>
       <c r="I37" s="1"/>
@@ -14480,14 +14476,14 @@
       <c r="V37" s="2"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" s="7" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="22" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="E38" s="4"/>
       <c r="G38" s="1"/>
@@ -14507,13 +14503,13 @@
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>677</v>
+      <c r="A39" s="15" t="s">
+        <v>706</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
       <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
@@ -14530,16 +14526,20 @@
       <c r="V39" s="2"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="E40" s="4"/>
+    <row r="40" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="G40" s="1"/>
       <c r="H40" s="2"/>
       <c r="I40" s="1"/>
@@ -14556,16 +14556,20 @@
       <c r="V40" s="2"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="E41" s="4"/>
+    <row r="41" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
@@ -14582,16 +14586,20 @@
       <c r="V41" s="2"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="E42" s="4"/>
+    <row r="42" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="G42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
@@ -14608,16 +14616,20 @@
       <c r="V42" s="2"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="E43" s="4"/>
+    <row r="43" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
@@ -14634,16 +14646,20 @@
       <c r="V43" s="2"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="E44" s="4"/>
+    <row r="44" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="G44" s="1"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
@@ -14660,16 +14676,14 @@
       <c r="V44" s="2"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" s="7" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>688</v>
+    <row r="45" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>690</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="E45" s="4"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
       <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
@@ -14686,14 +14700,22 @@
       <c r="V45" s="2"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+    <row r="46" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
@@ -14710,20 +14732,22 @@
       <c r="V46" s="2"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>286</v>
+        <v>642</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>287</v>
+        <v>644</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>288</v>
+        <v>645</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="E47" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>646</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
@@ -14740,20 +14764,22 @@
       <c r="V47" s="2"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>289</v>
+        <v>647</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>291</v>
+        <v>649</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>292</v>
+        <v>650</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>651</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
@@ -14770,20 +14796,22 @@
       <c r="V48" s="2"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>508</v>
+        <v>652</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>510</v>
+        <v>654</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>511</v>
+        <v>655</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>656</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
@@ -14800,20 +14828,22 @@
       <c r="V49" s="2"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>512</v>
+        <v>657</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>514</v>
+        <v>659</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>515</v>
+        <v>661</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E50" s="2"/>
+        <v>658</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>660</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
@@ -14830,19 +14860,13 @@
       <c r="V50" s="2"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>626</v>
-      </c>
+    <row r="51" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="G51" s="1"/>
       <c r="H51" s="2"/>
@@ -14860,14 +14884,22 @@
       <c r="V51" s="2"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
-        <v>690</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+    <row r="52" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="2"/>
       <c r="I52" s="1"/>
@@ -14886,20 +14918,18 @@
     </row>
     <row r="53" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>242</v>
+        <v>521</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>243</v>
+        <v>523</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>244</v>
+        <v>524</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>247</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="G53" s="1"/>
       <c r="H53" s="2"/>
       <c r="I53" s="1"/>
@@ -14916,30 +14946,31 @@
       <c r="V53" s="2"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>642</v>
+        <v>598</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>645</v>
+        <v>601</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>646</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="1"/>
       <c r="H54" s="2"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
+      <c r="K54" s="7"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
+      <c r="P54" s="7"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -14948,86 +14979,44 @@
       <c r="V54" s="2"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>647</v>
+        <v>602</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="1"/>
-    </row>
-    <row r="56" spans="1:23" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="1"/>
-    </row>
-    <row r="57" spans="1:23" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>660</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
       <c r="G57" s="1"/>
       <c r="H57" s="2"/>
       <c r="I57" s="1"/>
@@ -15044,14 +15033,22 @@
       <c r="V57" s="2"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+    <row r="58" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>704</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="2"/>
       <c r="I58" s="1"/>
@@ -15068,22 +15065,16 @@
       <c r="V58" s="2"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>516</v>
+        <v>265</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>518</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
       <c r="G59" s="1"/>
       <c r="H59" s="2"/>
       <c r="I59" s="1"/>
@@ -15100,19 +15091,15 @@
       <c r="V59" s="2"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>521</v>
+        <v>266</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>522</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="G60" s="1"/>
       <c r="H60" s="2"/>
@@ -15130,31 +15117,24 @@
       <c r="V60" s="2"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>598</v>
+        <v>267</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>599</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="7"/>
       <c r="G61" s="1"/>
       <c r="H61" s="2"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="7"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="P61" s="7"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
@@ -15163,41 +15143,67 @@
       <c r="V61" s="2"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>602</v>
+        <v>268</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>603</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G62" s="1"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="1"/>
+    </row>
+    <row r="63" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>629</v>
+        <v>269</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>631</v>
+        <v>275</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>630</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="D63" s="2"/>
       <c r="E63" s="2"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="1"/>
     </row>
     <row r="64" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="23" t="s">
-        <v>718</v>
-      </c>
-      <c r="B64" s="2"/>
+      <c r="A64" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -15217,22 +15223,16 @@
       <c r="V64" s="2"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>704</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
       <c r="G65" s="1"/>
       <c r="H65" s="2"/>
       <c r="I65" s="1"/>
@@ -15251,12 +15251,14 @@
     </row>
     <row r="66" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="G66" s="1"/>
@@ -15275,15 +15277,19 @@
       <c r="V66" s="2"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>716</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="G67" s="1"/>
       <c r="H67" s="2"/>
@@ -15301,15 +15307,19 @@
       <c r="V67" s="2"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>267</v>
+        <v>618</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+        <v>619</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>715</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="G68" s="1"/>
       <c r="H68" s="2"/>
@@ -15327,16 +15337,22 @@
       <c r="V68" s="2"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>268</v>
+        <v>606</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="G69" s="1"/>
       <c r="H69" s="2"/>
       <c r="I69" s="1"/>
@@ -15353,17 +15369,19 @@
       <c r="V69" s="2"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>269</v>
+        <v>610</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>275</v>
+        <v>612</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D70" s="2"/>
+        <v>613</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>611</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="G70" s="1"/>
       <c r="H70" s="2"/>
@@ -15381,15 +15399,19 @@
       <c r="V70" s="2"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>270</v>
+        <v>614</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="G71" s="1"/>
       <c r="H71" s="2"/>
@@ -15408,12 +15430,10 @@
       <c r="W71" s="1"/>
     </row>
     <row r="72" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="A72" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -15433,17 +15453,19 @@
       <c r="V72" s="2"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>272</v>
+        <v>29</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>273</v>
+        <v>503</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D73" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="G73" s="1"/>
       <c r="H73" s="2"/>
@@ -15461,19 +15483,13 @@
       <c r="V73" s="2"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>716</v>
-      </c>
+    <row r="74" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="G74" s="1"/>
       <c r="H74" s="2"/>
@@ -15491,18 +15507,18 @@
       <c r="V74" s="2"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>618</v>
+        <v>505</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>619</v>
+        <v>506</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>620</v>
+        <v>507</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E75" s="2"/>
       <c r="G75" s="1"/>
@@ -15521,50 +15537,23 @@
       <c r="V75" s="2"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="1"/>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="77" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>610</v>
+        <v>530</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>612</v>
+        <v>532</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>613</v>
+        <v>533</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>611</v>
+        <v>531</v>
       </c>
       <c r="E77" s="2"/>
       <c r="G77" s="1"/>
@@ -15583,19 +15572,13 @@
       <c r="V77" s="2"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>615</v>
-      </c>
+    <row r="78" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="G78" s="1"/>
       <c r="H78" s="2"/>
@@ -15613,22 +15596,31 @@
       <c r="V78" s="2"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+    <row r="79" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="E79" s="2"/>
+      <c r="F79" s="7"/>
       <c r="G79" s="1"/>
       <c r="H79" s="2"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
+      <c r="K79" s="7"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
+      <c r="P79" s="7"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
@@ -15637,52 +15629,36 @@
       <c r="V79" s="2"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="8"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="1"/>
-    </row>
-    <row r="81" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>539</v>
+      </c>
       <c r="E81" s="2"/>
+      <c r="F81" s="7"/>
       <c r="G81" s="1"/>
       <c r="H81" s="2"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
+      <c r="K81" s="7"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
+      <c r="P81" s="7"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
@@ -15691,28 +15667,31 @@
       <c r="V81" s="2"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>708</v>
+        <v>544</v>
       </c>
       <c r="E82" s="2"/>
+      <c r="F82" s="7"/>
       <c r="G82" s="1"/>
       <c r="H82" s="2"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
+      <c r="K82" s="7"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
+      <c r="P82" s="7"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
@@ -15721,33 +15700,58 @@
       <c r="V82" s="2"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A83" s="11" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="1"/>
+    </row>
+    <row r="84" spans="1:23" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="E84" s="2"/>
+      <c r="F84" s="7"/>
       <c r="G84" s="1"/>
       <c r="H84" s="2"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
+      <c r="K84" s="7"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
+      <c r="P84" s="7"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
@@ -15756,22 +15760,31 @@
       <c r="V84" s="2"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="15" t="s">
-        <v>712</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+    <row r="85" spans="1:23" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>550</v>
+      </c>
       <c r="E85" s="2"/>
+      <c r="F85" s="7"/>
       <c r="G85" s="1"/>
       <c r="H85" s="2"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
+      <c r="K85" s="7"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
+      <c r="P85" s="7"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
@@ -15780,18 +15793,18 @@
       <c r="V85" s="2"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="7"/>
@@ -15813,25 +15826,57 @@
       <c r="V86" s="2"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A87" s="11" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="1"/>
+    </row>
+    <row r="88" spans="1:23" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="E88" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="F88" s="7"/>
       <c r="G88" s="1"/>
       <c r="H88" s="2"/>
@@ -15851,18 +15896,18 @@
       <c r="V88" s="2"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="7"/>
@@ -15884,13 +15929,19 @@
       <c r="V89" s="2"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+    <row r="90" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>581</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90" s="7"/>
       <c r="G90" s="1"/>
@@ -15911,20 +15962,22 @@
       <c r="V90" s="2"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>545</v>
+        <v>576</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>547</v>
+        <v>578</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E91" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>579</v>
+      </c>
       <c r="F91" s="7"/>
       <c r="G91" s="1"/>
       <c r="H91" s="2"/>
@@ -15944,20 +15997,22 @@
       <c r="V91" s="2"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E92" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>587</v>
+      </c>
       <c r="F92" s="7"/>
       <c r="G92" s="1"/>
       <c r="H92" s="2"/>
@@ -15977,20 +16032,22 @@
       <c r="V92" s="2"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="E93" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="F93" s="7"/>
       <c r="G93" s="1"/>
       <c r="H93" s="2"/>
@@ -16010,22 +16067,20 @@
       <c r="V93" s="2"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>556</v>
+        <v>256</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>526</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="E94" s="2"/>
       <c r="F94" s="7"/>
       <c r="G94" s="1"/>
       <c r="H94" s="2"/>
@@ -16045,22 +16100,20 @@
       <c r="V94" s="2"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>564</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="E95" s="2"/>
       <c r="F95" s="7"/>
       <c r="G95" s="1"/>
       <c r="H95" s="2"/>
@@ -16080,19 +16133,13 @@
       <c r="V95" s="2"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>566</v>
-      </c>
+    <row r="96" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="7"/>
       <c r="G96" s="1"/>
@@ -16115,16 +16162,16 @@
     </row>
     <row r="97" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>556</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="7"/>
@@ -16146,22 +16193,20 @@
       <c r="V97" s="2"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>579</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="E98" s="2"/>
       <c r="F98" s="7"/>
       <c r="G98" s="1"/>
       <c r="H98" s="2"/>
@@ -16181,161 +16226,74 @@
       <c r="V98" s="2"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F99" s="7"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="1"/>
-      <c r="U99" s="8"/>
-      <c r="V99" s="2"/>
-      <c r="W99" s="1"/>
-    </row>
-    <row r="100" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A99" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>570</v>
+        <v>635</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="8"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="1"/>
-    </row>
-    <row r="101" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>256</v>
+        <v>641</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="1"/>
-      <c r="U101" s="8"/>
-      <c r="V101" s="2"/>
-      <c r="W101" s="1"/>
-    </row>
-    <row r="102" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="1"/>
-      <c r="U102" s="8"/>
-      <c r="V102" s="2"/>
-      <c r="W102" s="1"/>
-    </row>
-    <row r="103" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="15" t="s">
-        <v>714</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="7"/>
+        <v>638</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A102" s="15" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="G103" s="1"/>
       <c r="H103" s="2"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
-      <c r="K103" s="7"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
-      <c r="P103" s="7"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
@@ -16344,31 +16302,24 @@
       <c r="V103" s="2"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>591</v>
-      </c>
+    <row r="104" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>593</v>
+        <v>696</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>592</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="D104" s="2"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="7"/>
       <c r="G104" s="1"/>
       <c r="H104" s="2"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
-      <c r="K104" s="7"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
-      <c r="P104" s="7"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
       <c r="S104" s="2"/>
@@ -16377,31 +16328,24 @@
       <c r="V104" s="2"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>594</v>
-      </c>
+    <row r="105" spans="1:23" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>596</v>
+        <v>698</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>595</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="D105" s="2"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="7"/>
       <c r="G105" s="1"/>
       <c r="H105" s="2"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
-      <c r="K105" s="7"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
-      <c r="P105" s="7"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
       <c r="S105" s="2"/>
@@ -16410,65 +16354,114 @@
       <c r="V105" s="2"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A106" s="15" t="s">
-        <v>717</v>
+    <row r="106" spans="1:23" s="7" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>701</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G106" s="1"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="8"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="1"/>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A107" s="11" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>640</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>641</v>
+        <v>217</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>638</v>
+        <v>253</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A109" s="15" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="G108" s="1"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="1"/>
+    </row>
+    <row r="109" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="1"/>
+    </row>
+    <row r="110" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>691</v>
+        <v>237</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>693</v>
+        <v>238</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>692</v>
+        <v>251</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="2"/>
@@ -16486,16 +16479,22 @@
       <c r="V110" s="2"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A111" s="2"/>
+    <row r="111" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="B111" s="2" t="s">
-        <v>696</v>
+        <v>240</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="G111" s="1"/>
       <c r="H111" s="2"/>
       <c r="I111" s="1"/>
@@ -16512,16 +16511,22 @@
       <c r="V111" s="2"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
+    <row r="112" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="B112" s="2" t="s">
-        <v>698</v>
+        <v>255</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="G112" s="1"/>
       <c r="H112" s="2"/>
       <c r="I112" s="1"/>
@@ -16538,16 +16543,22 @@
       <c r="V112" s="2"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" s="7" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="2"/>
+    <row r="113" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="B113" s="2" t="s">
-        <v>700</v>
+        <v>261</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="G113" s="1"/>
       <c r="H113" s="2"/>
       <c r="I113" s="1"/>
@@ -16564,23 +16575,47 @@
       <c r="V113" s="2"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D117" s="2"/>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
@@ -16594,50 +16629,8 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/4 четверть_13_JavaScript_sugarJS.xlsx
+++ b/4 четверть_13_JavaScript_sugarJS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C75063-1982-450E-B883-6F6BF9B5C55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3929DF-58BF-4C9E-B634-7735120DE2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10393,88 +10393,6 @@
     <t>option 7</t>
   </si>
   <si>
-    <r>
-      <t>Date.create()
-Date.create('July')
-Date.create('1776') 
-Date.create('today')
-Date.create('Wednesday') 
-Date.create('next Friday')
-Date.create('July 4, 1776')
-Date.create(-446806800000)
-Date.create('1776年07月04日', 'ja')
-Date.create('August', {</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>past</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: true})
-Date.create('August', {</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>future</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: true})
-Date.create('Thursday', {</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fromUTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: true}) </t>
-    </r>
-  </si>
-  <si>
     <t>September 3, 2025 11:16 AM (date now)
 July 1, 2025 12:00 AM
 January 1, 1776 12:00 AM
@@ -10863,6 +10781,148 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> to Date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Date.create()
+Date.create('July')
+Date.create('1776') 
+Date.create('today')
+Date.create('Wednesday') 
+Date.create('next Friday')
+Date.create('July 4, 1776')
+Date.create(-446806800000)
+Date.create('1776年07月04日', 'ja')
+Date.create('August', {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>past</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: true})
+Date.create('August', {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>future</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: true})
+Date.create('Thursday', {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fromUTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: true}) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date.create(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>j[i.prop]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).format(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'{dd}.{MM}.{yyyy}'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -13847,8 +13907,8 @@
   </sheetPr>
   <dimension ref="A2:W152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13884,52 +13944,52 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -13939,22 +13999,22 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -13982,7 +14042,7 @@
     </row>
     <row r="20" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -14034,15 +14094,15 @@
       <c r="V21" s="2"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>662</v>
@@ -14298,12 +14358,12 @@
     </row>
     <row r="31" spans="1:23" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="22" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E31" s="4"/>
       <c r="G31" s="1"/>
@@ -14324,7 +14384,7 @@
     </row>
     <row r="32" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -14348,12 +14408,12 @@
     </row>
     <row r="33" spans="1:23" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E33" s="4"/>
       <c r="G33" s="1"/>
@@ -14374,12 +14434,12 @@
     </row>
     <row r="34" spans="1:23" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E34" s="4"/>
       <c r="G34" s="1"/>
@@ -14400,12 +14460,12 @@
     </row>
     <row r="35" spans="1:23" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E35" s="4"/>
       <c r="G35" s="1"/>
@@ -14426,12 +14486,12 @@
     </row>
     <row r="36" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E36" s="4"/>
       <c r="G36" s="1"/>
@@ -14452,12 +14512,12 @@
     </row>
     <row r="37" spans="1:23" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E37" s="4"/>
       <c r="G37" s="1"/>
@@ -14478,12 +14538,12 @@
     </row>
     <row r="38" spans="1:23" s="7" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E38" s="4"/>
       <c r="G38" s="1"/>
@@ -14504,7 +14564,7 @@
     </row>
     <row r="39" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -14537,7 +14597,7 @@
         <v>288</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E40" s="2"/>
       <c r="G40" s="1"/>
@@ -14678,7 +14738,7 @@
     </row>
     <row r="45" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -14862,7 +14922,7 @@
     </row>
     <row r="51" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -15011,7 +15071,7 @@
     </row>
     <row r="57" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -15038,16 +15098,16 @@
         <v>264</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>703</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="2"/>
@@ -15288,7 +15348,7 @@
         <v>285</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E67" s="2"/>
       <c r="G67" s="1"/>
@@ -15318,7 +15378,7 @@
         <v>620</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E68" s="2"/>
       <c r="G68" s="1"/>
@@ -15431,7 +15491,7 @@
     </row>
     <row r="72" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -15485,7 +15545,7 @@
     </row>
     <row r="74" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -15518,7 +15578,7 @@
         <v>507</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E75" s="2"/>
       <c r="G75" s="1"/>
@@ -15539,7 +15599,7 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="77" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -15574,7 +15634,7 @@
     </row>
     <row r="78" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -15631,7 +15691,7 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="81" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -16135,7 +16195,7 @@
     </row>
     <row r="96" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -16228,7 +16288,7 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -16267,7 +16327,7 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="103" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -16275,13 +16335,13 @@
         <v>245</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>692</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>246</v>
@@ -16305,10 +16365,10 @@
     <row r="104" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -16331,10 +16391,10 @@
     <row r="105" spans="1:23" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -16357,10 +16417,10 @@
     <row r="106" spans="1:23" s="7" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>701</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -16382,7 +16442,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="108" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">

--- a/4 четверть_13_JavaScript_sugarJS.xlsx
+++ b/4 четверть_13_JavaScript_sugarJS.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3929DF-58BF-4C9E-B634-7735120DE2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C17255-BEC7-4749-8D83-B9170DADDE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sugarjs" sheetId="20" r:id="rId1"/>
     <sheet name="Array" sheetId="15" r:id="rId2"/>
     <sheet name="Date" sheetId="18" r:id="rId3"/>
     <sheet name="Object" sheetId="19" r:id="rId4"/>
+    <sheet name="String" sheetId="21" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="827">
   <si>
     <t>construct(n,indexMapFn)</t>
   </si>
@@ -10923,6 +10924,2114 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>at(index,[loop] = false)</t>
+  </si>
+  <si>
+    <t>Gets the character(s) at a given index. When loop is true, overshooting the end of the string will begin counting from the other end. index may be negative. If index is an array, multiple elements will be returned.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+  </si>
+  <si>
+    <t>camelize([upper] = true)</t>
+  </si>
+  <si>
+    <t>Converts underscores and hyphens to camel case. If upper is true, the string will be UpperCamelCase. If the inflections module is included, acronyms can also be defined that will be used when camelizing.</t>
+  </si>
+  <si>
+    <t>'caps_lock'.camelize() //"CapsLock"
+'moz-border-radius'.camelize() //"MozBorderRadius"
+'moz-border-radius'.camelize(false) //"mozBorderRadius"
+'http-method'.camelize() //"HTTPMethod"</t>
+  </si>
+  <si>
+    <t>capitalize([lower] = false,[all] = false)</t>
+  </si>
+  <si>
+    <t>Capitalizes the first character of the string. If lower is true, the remainder of the string will be downcased. If all is true, all words in the string will be capitalized.</t>
+  </si>
+  <si>
+    <t>chars(eachCharFn)</t>
+  </si>
+  <si>
+    <t>Runs eachCharFn against each character in the string, and returns an array.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jumpy'.chars()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //["j", "u", "m", "p", "y"]
+'jumpy'.chars(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>function(c) {
+  // Called 5 times: "j","u","m","p","y"
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">); //["j", "u", "m", "p", "y"]
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>hello'.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>capitalize()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //"Hello"
+'HELLO'.capitalize(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //"Hello"
+'hello kitty'.capitalize() //"Hello kitty"
+'hEllO kItTy'.capitalize(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true, true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //"Hello Kitty"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'jumpy'.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at(0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //"j"
+'jumpy'.at(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //"y"
+'jumpy'.at(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //""
+'jumpy'.at(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5, true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //"j"
+'lucky charms'.at(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[2, 4]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) //["c", "y"]
+</t>
+    </r>
+  </si>
+  <si>
+    <t>modify String</t>
+  </si>
+  <si>
+    <t>codes([eachCodeFn])</t>
+  </si>
+  <si>
+    <r>
+      <t>jumpy'.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">codes() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//[106, 117, 109, 112, 121]
+'jumpy'.codes(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>function(c) {
+  // Called 5 times: 106, 117, 109, 112, 121
+}); //[106, 117, 109, 112, 121]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">get </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of Codes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">get </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Array of Chars</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">modify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+  </si>
+  <si>
+    <t>Runs callback eachCodeFn against each character code in the string. Returns an array of character codes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+code	The current character code.
+i	The current index.
+str	The string being operated on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+char	The current character.
+i	The current index.
+arr	An array of all characters.</t>
+  </si>
+  <si>
+    <t>compact()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>too \n much \n space'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.compact() //"too much space"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'enough \n '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.compact() //"enough"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compacts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>whitespace (пробелы и переносы строки)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the string to a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>single space</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trims</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the ends.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trim()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string.replace(' \n ', ' ')</t>
+    </r>
+  </si>
+  <si>
+    <t>dasherize()</t>
+  </si>
+  <si>
+    <t>a_farewell_to_arms'.dasherize() //"a-farewell-to-arms"
+'capsLock'.dasherize() //"caps-lock"</t>
+  </si>
+  <si>
+    <t>Converts underscores and camel casing to hypens.</t>
+  </si>
+  <si>
+    <t>decodeBase64()</t>
+  </si>
+  <si>
+    <t>Decodes the string from base64 encoding. This method wraps native methods when available, and uses a custom implementation when not available. It can also handle Unicode string encodings.</t>
+  </si>
+  <si>
+    <r>
+      <t>aHR0cDovL3R3aXR0ZXIuY29tLw=='.decodeBase64() //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"http://twitter.com/"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+'anVzdCBnb3QgZGVjb2RlZA=='.decodeBase64() //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"just got decoded"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Decode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coding</t>
+    </r>
+  </si>
+  <si>
+    <t>encodeBase64()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gonna get encoded!'.encodeBase64() </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//"Z29ubmEgZ2V0IGVuY29kZWQh"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+'http://twitter.com/'.encodeBase64() </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//"aHR0cDovL3R3aXR0ZXIuY29tLw=="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Encodes the string into base64 encoding. This method wraps native methods when available, and uses a custom implementation when not available. It can also handle Unicode string encodings.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Encode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coding</t>
+    </r>
+  </si>
+  <si>
+    <t>endsWith(search,[pos] = length)</t>
+  </si>
+  <si>
+    <t>Returns true if the string ends with substring search. Search ends at pos, which defaults to the entire string length. This method is provided as a polyfill.</t>
+  </si>
+  <si>
+    <r>
+      <t>jum</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'.endsWith('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>') //true
+'ju</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'.endsWith('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MPY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>')  //false
+'ju</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y'.endsWith(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'mp', 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)  //true</t>
+    </r>
+  </si>
+  <si>
+    <t>first([n] = 1)</t>
+  </si>
+  <si>
+    <t>Returns the first n characters of the string.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ucky charms'.first() //"l"
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>luc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ky charms'.first(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //"luc"</t>
+    </r>
+  </si>
+  <si>
+    <t>forEach([search],[eachFn])</t>
+  </si>
+  <si>
+    <t>Runs callback eachFn against every character in the string, or every every occurence of search if it is provided. Returns an array of matches. search may be either a string or regex, and defaults to every character in the string. If eachFn returns false at any time it will break out of the loop.</t>
+  </si>
+  <si>
+    <t>match	The current match.
+i	The current index.
+arr	An array of all matches.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jumpy'.forEach(console.log)
+'jumpy'.forEach(log) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//["j", "u", "m", "p", "y"]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>неуверен</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+'jumpy'.forEach(/[r-z]/) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["u", "y"]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+'jumpy'.forEach(/mp/)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ["mp"]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+'jumpy'.forEach(/[r-z]/, function(m) {
+  // Called twice: "u", "y"
+}); //["u", "y"]</t>
+    </r>
+  </si>
+  <si>
+    <t>format(obj1,[obj2],[...)</t>
+  </si>
+  <si>
+    <t>Replaces {} tokens in the string with arguments or properties. Tokens support deep properties. If a single object is passed, its properties can be accessed by keywords such as {name}. If multiple objects or a non-object are passed, they can be accessed by the argument position like {0}. Literal braces in the string can be escaped by repeating them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome, {name}.'.format({ name: 'Bill' })
+'You are {0} years old today.'.format(5)
+'{0.name} and {1.name}'.format(users)
+'${currencies.usd.balance}'.format(Harry) //"$482"
+'{{Hello}}'.format('Hello') //"{Hello}"
+</t>
+  </si>
+  <si>
+    <t>Форматированная строка</t>
+  </si>
+  <si>
+    <t>from([index] = 0)</t>
+  </si>
+  <si>
+    <t>Returns a section of the string starting from index.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">'lucky charms'.from() </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//"lucky charms"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+'lucky charms'.from(7) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//"harms"</t>
+    </r>
+  </si>
+  <si>
+    <t>hasScript()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Returns true if the string contains any characters in that script.
+hasArabic
+hasCyrillic
+hasGreek
+hasHangul
+hasHan
+hasKanji
+hasHebrew
+hasHiragana
+hasKana
+hasKatakana
+hasLatin
+hasThai
+hasDevanagari</t>
+  </si>
+  <si>
+    <t>includes</t>
+  </si>
+  <si>
+    <t>'jumpy'.includes('py') //true
+'broken'.includes('ken', 3) //true
+'broken'.includes('bro', 3) //false</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Returns true if search is contained within the string. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search begins at pos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, which defaults to the beginning of the string. 
+Sugar enhances this method to allow matching a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+This method is provided as a polyfill.</t>
+    </r>
+  </si>
+  <si>
+    <t>Boolean
++regex</t>
+  </si>
+  <si>
+    <t>insert(str,[index] = length)</t>
+  </si>
+  <si>
+    <t>Adds str at index. Allows negative values.</t>
+  </si>
+  <si>
+    <t>'dopamine'.insert('e', 3) //"dopeamine"
+'spelling eror'.insert('r', -3) //"spelling error"</t>
+  </si>
+  <si>
+    <t>isBlank()</t>
+  </si>
+  <si>
+    <t>'.isBlank() //true
+'   '.isBlank() //true
+'noway'.isBlank() //false</t>
+  </si>
+  <si>
+    <t>''.isEmpty() //true
+' '.isEmpty() //false
+'a'.isEmpty() //false</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Returns true if the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string has length 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Returns true if the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string has length 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> contains only whitespace.</t>
+    </r>
+  </si>
+  <si>
+    <t>last([n] = 1)</t>
+  </si>
+  <si>
+    <t>Returns the last n characters of the string.</t>
+  </si>
+  <si>
+    <r>
+      <t>lucky charm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'.last() //"s"
+'lucky cha</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'.last(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //"rms"</t>
+    </r>
+  </si>
+  <si>
+    <t>Runs eachLineFn against each line in the string, and returns an array.</t>
+  </si>
+  <si>
+    <r>
+      <t>lineText.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lines() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//["Line one.", "Line two.", "Line three."]
+lineText.lines(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>function(l) {
+  // Called once per line
+});</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //["Line one.", "Line two.", "Line three."]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">get </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Array of Lines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+  </si>
+  <si>
+    <t>lines([eachLineFn])</t>
+  </si>
+  <si>
+    <t>pad(num,[padding] = ' ')</t>
+  </si>
+  <si>
+    <t>Pads the string out with padding to be exactly num characters.</t>
+  </si>
+  <si>
+    <r>
+      <t>'wasabi'.pad(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //" wasabi "
+'wasabi'.pad(8,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '-'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //"-wasabi-"</t>
+    </r>
+  </si>
+  <si>
+    <t>padLeft(num,padding)</t>
+  </si>
+  <si>
+    <t>Pads the string out from the left with padding to be exactly num characters.</t>
+  </si>
+  <si>
+    <r>
+      <t>'wasabi'.padLeft(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //" wasabi"
+'wasabi'.padLeft(8,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '-'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //"--wasabi"</t>
+    </r>
+  </si>
+  <si>
+    <t>padRight(num,[padding] = ' ')</t>
+  </si>
+  <si>
+    <t>Pads the string out from the right with padding to be exactly num characters.</t>
+  </si>
+  <si>
+    <r>
+      <t>'wasabi'.padRight(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //"wasabi "
+'wasabi'.padRight(8, '-') //"wasabi--"</t>
+    </r>
+  </si>
+  <si>
+    <t>remove(f)</t>
+  </si>
+  <si>
+    <r>
+      <t>schfifty five'.remove('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>') //"schifty five"
+'schfifty five'.remove(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/[a-f]/g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) //"shity iv"
+</t>
+    </r>
+  </si>
+  <si>
+    <t>removeAll(f)</t>
+  </si>
+  <si>
+    <t>Removes the first occurrence of f in the string. 
+f can be a either case-sensitive string or a regex. In either case only the first match will be removed. 
+To remove multiple occurrences, use removeAll.</t>
+  </si>
+  <si>
+    <t>Removes any occurences of f in the string. 
+f can be either a case-sensitive string or a regex. In either case all matches will be removed.
+To remove only a single occurence, use remove.</t>
+  </si>
+  <si>
+    <t>schfifty five'.removeAll('f') //"schity ive"
+'schfifty five'.removeAll(/[a-f]/) //"shity iv"</t>
+  </si>
+  <si>
+    <t>removeTags([tag] = 'all',[replace])</t>
+  </si>
+  <si>
+    <t>modify String - HTML</t>
+  </si>
+  <si>
+    <t>Removes HTML tags and their contents from the string. tag may be an array of tags or 'all', in which case all tags will be removed. replace will replace what was removed, and may be a string or a function of type replaceFn to handle replacements. If this function returns a string, then it will be used for the replacement. If it returns undefined, the tags will be removed normally.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;p&gt;just &lt;b&gt;some&lt;/b&gt; text&lt;/p&gt;'.removeTags() </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+'&lt;p&gt;just &lt;b&gt;some&lt;/b&gt; text&lt;/p&gt;'.removeTags('b') </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//"&lt;p&gt;just text&lt;/p&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+'&lt;p&gt;hi!&lt;/p&gt;'.removeTags('p', function(all, content) {
+  return 'bye!';
+}); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//"bye!"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+tag - The tag name.
+inner - The tag content.
+attr - The attributes on the tag, if any, as a string.
+outer - The entire matched tag string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+line - The current line.
+i - The current index.
+arr - An array of all lines.</t>
+  </si>
+  <si>
+    <t>repeat([num] = 0)</t>
+  </si>
+  <si>
+    <t>generate String</t>
+  </si>
+  <si>
+    <t>Returns the string repeated num times. This method is provided as a polyfill.</t>
+  </si>
+  <si>
+    <r>
+      <t>'jumpy'.repeat(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //"jumpyjumpy"
+'a'.repeat(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //"aaaaa"
+'a'.repeat(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //""</t>
+    </r>
+  </si>
+  <si>
+    <t>replaceAll(f,[str1],[str2],[...)</t>
+  </si>
+  <si>
+    <t>Replaces all occurences of f with arguments passed. 
+This method is intended to be a quick way to perform multiple string replacements quickly when the replacement token differs depending on position. f can be either a case-sensitive string or a regex. In either case all matches will be replaced.</t>
+  </si>
+  <si>
+    <r>
+      <t>'-x -y -z'.replaceAll(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', 1, 2, 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //"1x 2y 3z"
+'one and two'.replaceAll(/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one|two</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/, '1st', '2nd') //"1st and 2nd"</t>
+    </r>
+  </si>
+  <si>
+    <t>reverse()</t>
+  </si>
+  <si>
+    <t>Reverses the string.</t>
+  </si>
+  <si>
+    <t>jumpy'.reverse()
+'lucky charms'.reverse()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">calc number or generate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
     </r>
   </si>
 </sst>
@@ -11170,7 +13279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -11239,6 +13348,15 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11255,6 +13373,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>43061</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4165358</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2061882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F682B4-511B-4110-B75A-BF4E8E0B37EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5977696" y="14065624"/>
+          <a:ext cx="4122297" cy="2017058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12654,8 +14821,8 @@
   </sheetPr>
   <dimension ref="A2:W130"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13544,7 +15711,7 @@
       <c r="B74" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="24" t="s">
         <v>150</v>
       </c>
       <c r="D74" s="14" t="s">
@@ -13624,7 +15791,7 @@
         <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>206</v>
+        <v>826</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>125</v>
@@ -13641,7 +15808,7 @@
         <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>206</v>
+        <v>826</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>129</v>
@@ -13907,7 +16074,7 @@
   </sheetPr>
   <dimension ref="A2:W152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -16703,8 +18870,8 @@
   </sheetPr>
   <dimension ref="A2:AB100"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18646,4 +20813,560 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D9C033-30BC-4D88-9149-0AED138B4921}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:V48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="61.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="71.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="67.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="64.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="72.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="43.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.77734375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="56.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="46.77734375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="62.88671875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="49.21875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.77734375" style="8"/>
+    <col min="22" max="22" width="67.77734375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="68.33203125" style="1" customWidth="1"/>
+    <col min="24" max="25" width="59.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="59.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="99.44140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="41.21875" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="20"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="21"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="21"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="20"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="20"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>731</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>738</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>742</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>758</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>765</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>763</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>768</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>772</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>775</v>
+      </c>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>777</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>784</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>785</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>791</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>797</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>800</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>803</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>809</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>819</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>822</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>825</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>824</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/4 четверть_13_JavaScript_sugarJS.xlsx
+++ b/4 четверть_13_JavaScript_sugarJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067071EC-CFE1-4C70-B8B0-1F0E5919BADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8EE8C6-5BD8-44B7-9A78-9FA14CB6ED03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13245" yWindow="-20160" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sugarjs" sheetId="20" r:id="rId1"/>
@@ -771,10 +771,6 @@
     <t>Returns the first element(s) in the array. When num is passed, returns the first num elements in the array.</t>
   </si>
   <si>
-    <t>[1,2,3].first() 1
-[1,2,3].first(2) [1, 2]</t>
-  </si>
-  <si>
     <t>select - min/max/slice</t>
   </si>
   <si>
@@ -979,10 +975,6 @@
     <t>Returns a slice of the array from index.</t>
   </si>
   <si>
-    <t>['a','b','c'].from(1) ["b", "c"]
-['a','b','c'].from(2) ["c"]</t>
-  </si>
-  <si>
     <t>groupBy(map,[groupFn])</t>
   </si>
   <si>
@@ -2124,10 +2116,6 @@
   <si>
     <t>[[1], 2, [3]].flatten() [1, 2, 3]
 [[1],[],2,3].flatten() [1, 2, 3]</t>
-  </si>
-  <si>
-    <t>[1,2,3].last() 3
-[1,2,3].last(2) [2, 3]</t>
   </si>
   <si>
     <t>removeAt(start,[end])</t>
@@ -2522,10 +2510,6 @@
   </si>
   <si>
     <t>Returns a slice of the array up to index.</t>
-  </si>
-  <si>
-    <t>['a','b','c'].to(1) ["a"]
-['a','b','c'].to(2) ["a", "b"]</t>
   </si>
   <si>
     <t>Slice</t>
@@ -12665,156 +12649,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>'-x -y -z'.replaceAll(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1, 2, 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) //"1x 2y 3z"
-'one and two'.replaceAll(/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>one|two</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/, '1st', '2nd') //"1st and 2nd"</t>
-    </r>
-  </si>
-  <si>
     <t>replace(substring,newstring)</t>
-  </si>
-  <si>
-    <r>
-      <t>'-x -y -z'.replace(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) //"1x 1y 1z"</t>
-    </r>
   </si>
   <si>
     <t>stripTags([tag] = 'all',[replace])</t>
@@ -17708,17 +17543,332 @@
       <t xml:space="preserve"> Returns a string representation of the range.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>'-x -y -z'.replace(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">', </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) //"1x -y -z"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'-x -y -z'.replaceAll(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">', </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1, 2, 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) //"1x 2y 3z" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Комменарий!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Можно использовать через …spread массива
+'one and two'.replaceAll(/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one|two</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/, '1st', '2nd') //"1st and 2nd"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[1,2,3].first() 1
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,3].first(2) [1, 2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[1,2,3].last() 3
+[1,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>].last(2) [2, 3]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>['a','b','c'].to(1) ["a"] - аналог first
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'a','b'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,'c'].to(2) ["a", "b"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>['a',</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'b','c'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>].from(1) ["b", "c"]
+['a','b',</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'c'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>].from(2) ["c"]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -18001,9 +18151,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -18014,50 +18164,50 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -18066,42 +18216,45 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18495,7 +18648,7 @@
     </row>
     <row r="4" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -18519,11 +18672,11 @@
     </row>
     <row r="5" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -18545,13 +18698,13 @@
     </row>
     <row r="6" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -18573,7 +18726,7 @@
     </row>
     <row r="7" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -18599,7 +18752,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -19567,8 +19720,8 @@
   </sheetPr>
   <dimension ref="A2:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19604,80 +19757,80 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" s="19" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -19715,7 +19868,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -19733,16 +19886,16 @@
     </row>
     <row r="20" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
@@ -19757,7 +19910,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="9"/>
@@ -19770,10 +19923,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>1</v>
@@ -19784,198 +19937,198 @@
     </row>
     <row r="23" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>1085</v>
-      </c>
       <c r="C25" s="25" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:23" ht="144" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="144" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -19983,10 +20136,10 @@
     <row r="37" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -19994,10 +20147,10 @@
     <row r="38" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -20007,7 +20160,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="2"/>
@@ -20018,7 +20171,7 @@
         <v>28</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>30</v>
@@ -20029,7 +20182,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -20050,30 +20203,30 @@
     </row>
     <row r="44" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>27</v>
@@ -20081,30 +20234,30 @@
     </row>
     <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
@@ -20126,22 +20279,22 @@
     </row>
     <row r="49" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -20152,7 +20305,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
@@ -20166,7 +20319,7 @@
         <v>40</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>41</v>
@@ -20183,13 +20336,13 @@
         <v>17</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -20197,27 +20350,27 @@
         <v>22</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>27</v>
@@ -20225,22 +20378,22 @@
     </row>
     <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D57" s="10"/>
     </row>
@@ -20249,7 +20402,7 @@
         <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>20</v>
@@ -20263,10 +20416,10 @@
         <v>44</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>46</v>
@@ -20277,44 +20430,44 @@
     </row>
     <row r="60" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D60" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D61" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>27</v>
@@ -20322,94 +20475,94 @@
     </row>
     <row r="63" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="2"/>
@@ -20420,7 +20573,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>7</v>
@@ -20437,7 +20590,7 @@
         <v>6</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>9</v>
@@ -20449,7 +20602,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -20459,10 +20612,10 @@
         <v>48</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>50</v>
+        <v>1084</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>49</v>
@@ -20470,50 +20623,50 @@
     </row>
     <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>129</v>
+        <v>1085</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>152</v>
+        <v>200</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>1086</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E76" s="14"/>
     </row>
     <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D77" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -20522,16 +20675,16 @@
     </row>
     <row r="79" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>27</v>
@@ -20539,16 +20692,16 @@
     </row>
     <row r="80" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -20556,10 +20709,10 @@
         <v>42</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>43</v>
@@ -20570,40 +20723,40 @@
     </row>
     <row r="82" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="C83" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D85" s="14"/>
     </row>
@@ -20612,7 +20765,7 @@
         <v>33</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>31</v>
@@ -20623,176 +20776,176 @@
     </row>
     <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D87" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D87" s="10" t="s">
+      <c r="E87" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E88" s="14"/>
     </row>
     <row r="89" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D90" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D94" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>27</v>
@@ -20800,16 +20953,16 @@
     </row>
     <row r="100" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="E100" s="14" t="s">
         <v>27</v>
@@ -20817,36 +20970,36 @@
     </row>
     <row r="101" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C101" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="D101" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C102" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="D102" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
@@ -20854,7 +21007,7 @@
         <v>24</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>26</v>
@@ -20871,7 +21024,7 @@
         <v>34</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>36</v>
@@ -20885,22 +21038,22 @@
     </row>
     <row r="105" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E105" s="14"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="2"/>
@@ -20908,31 +21061,31 @@
     </row>
     <row r="107" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E107" s="14"/>
     </row>
     <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E108" s="2"/>
     </row>
@@ -21140,88 +21293,88 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -21249,7 +21402,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -21257,21 +21410,21 @@
     </row>
     <row r="23" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="24" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -21295,16 +21448,16 @@
     </row>
     <row r="25" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E25" s="2"/>
       <c r="G25" s="1"/>
@@ -21325,19 +21478,19 @@
     </row>
     <row r="26" spans="1:23" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
@@ -21357,16 +21510,16 @@
     </row>
     <row r="27" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E27" s="2"/>
       <c r="G27" s="1"/>
@@ -21388,13 +21541,13 @@
     <row r="28" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E28" s="2"/>
       <c r="G28" s="1"/>
@@ -21416,13 +21569,13 @@
     <row r="29" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E29" s="2"/>
       <c r="G29" s="1"/>
@@ -21444,13 +21597,13 @@
     <row r="30" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E30" s="2"/>
       <c r="G30" s="1"/>
@@ -21472,13 +21625,13 @@
     <row r="31" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E31" s="2"/>
       <c r="G31" s="1"/>
@@ -21500,13 +21653,13 @@
     <row r="32" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E32" s="2"/>
       <c r="G32" s="1"/>
@@ -21528,13 +21681,13 @@
     <row r="33" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E33" s="2"/>
       <c r="G33" s="1"/>
@@ -21555,19 +21708,19 @@
     </row>
     <row r="34" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="2"/>
@@ -21587,12 +21740,12 @@
     </row>
     <row r="35" spans="1:23" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="22" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E35" s="4"/>
       <c r="G35" s="1"/>
@@ -21613,7 +21766,7 @@
     </row>
     <row r="36" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -21637,12 +21790,12 @@
     </row>
     <row r="37" spans="1:23" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="22" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E37" s="4"/>
       <c r="G37" s="1"/>
@@ -21663,12 +21816,12 @@
     </row>
     <row r="38" spans="1:23" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="22" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E38" s="4"/>
       <c r="G38" s="1"/>
@@ -21689,12 +21842,12 @@
     </row>
     <row r="39" spans="1:23" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="22" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E39" s="4"/>
       <c r="G39" s="1"/>
@@ -21715,12 +21868,12 @@
     </row>
     <row r="40" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="22" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E40" s="4"/>
       <c r="G40" s="1"/>
@@ -21741,12 +21894,12 @@
     </row>
     <row r="41" spans="1:23" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="22" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E41" s="4"/>
       <c r="G41" s="1"/>
@@ -21767,12 +21920,12 @@
     </row>
     <row r="42" spans="1:23" s="7" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="22" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E42" s="4"/>
       <c r="G42" s="1"/>
@@ -21793,7 +21946,7 @@
     </row>
     <row r="43" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -21817,16 +21970,16 @@
     </row>
     <row r="44" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E44" s="2"/>
       <c r="G44" s="1"/>
@@ -21847,16 +22000,16 @@
     </row>
     <row r="45" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E45" s="2"/>
       <c r="G45" s="1"/>
@@ -21877,16 +22030,16 @@
     </row>
     <row r="46" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E46" s="2"/>
       <c r="G46" s="1"/>
@@ -21907,16 +22060,16 @@
     </row>
     <row r="47" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E47" s="2"/>
       <c r="G47" s="1"/>
@@ -21937,16 +22090,16 @@
     </row>
     <row r="48" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E48" s="2"/>
       <c r="G48" s="1"/>
@@ -21967,7 +22120,7 @@
     </row>
     <row r="49" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -21991,19 +22144,19 @@
     </row>
     <row r="50" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="2"/>
@@ -22023,19 +22176,19 @@
     </row>
     <row r="51" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="2"/>
@@ -22055,19 +22208,19 @@
     </row>
     <row r="52" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="2"/>
@@ -22087,19 +22240,19 @@
     </row>
     <row r="53" spans="1:23" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="2"/>
@@ -22119,19 +22272,19 @@
     </row>
     <row r="54" spans="1:23" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>651</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="2"/>
@@ -22151,7 +22304,7 @@
     </row>
     <row r="55" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -22175,19 +22328,19 @@
     </row>
     <row r="56" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>514</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="2"/>
@@ -22207,16 +22360,16 @@
     </row>
     <row r="57" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E57" s="2"/>
       <c r="G57" s="1"/>
@@ -22237,16 +22390,16 @@
     </row>
     <row r="58" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="7"/>
@@ -22270,37 +22423,37 @@
     </row>
     <row r="59" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -22324,19 +22477,19 @@
     </row>
     <row r="62" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="2"/>
@@ -22356,10 +22509,10 @@
     </row>
     <row r="63" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -22382,10 +22535,10 @@
     </row>
     <row r="64" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -22408,10 +22561,10 @@
     </row>
     <row r="65" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -22434,10 +22587,10 @@
     </row>
     <row r="66" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -22460,13 +22613,13 @@
     </row>
     <row r="67" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -22488,10 +22641,10 @@
     </row>
     <row r="68" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -22514,10 +22667,10 @@
     </row>
     <row r="69" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -22540,13 +22693,13 @@
     </row>
     <row r="70" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -22568,16 +22721,16 @@
     </row>
     <row r="71" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E71" s="2"/>
       <c r="G71" s="1"/>
@@ -22598,16 +22751,16 @@
     </row>
     <row r="72" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E72" s="2"/>
       <c r="G72" s="1"/>
@@ -22628,19 +22781,19 @@
     </row>
     <row r="73" spans="1:23" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="2"/>
@@ -22660,16 +22813,16 @@
     </row>
     <row r="74" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E74" s="2"/>
       <c r="G74" s="1"/>
@@ -22690,16 +22843,16 @@
     </row>
     <row r="75" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E75" s="2"/>
       <c r="G75" s="1"/>
@@ -22720,7 +22873,7 @@
     </row>
     <row r="76" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -22747,13 +22900,13 @@
         <v>28</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E77" s="2"/>
       <c r="G77" s="1"/>
@@ -22774,7 +22927,7 @@
     </row>
     <row r="78" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -22798,16 +22951,16 @@
     </row>
     <row r="79" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E79" s="2"/>
       <c r="G79" s="1"/>
@@ -22828,21 +22981,21 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="81" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E81" s="2"/>
       <c r="G81" s="1"/>
@@ -22863,7 +23016,7 @@
     </row>
     <row r="82" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -22887,16 +23040,16 @@
     </row>
     <row r="83" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="7"/>
@@ -22920,21 +23073,21 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="85" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="7"/>
@@ -22958,16 +23111,16 @@
     </row>
     <row r="86" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="7"/>
@@ -22991,7 +23144,7 @@
     </row>
     <row r="87" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -23018,16 +23171,16 @@
     </row>
     <row r="88" spans="1:23" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="7"/>
@@ -23051,16 +23204,16 @@
     </row>
     <row r="89" spans="1:23" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="7"/>
@@ -23084,16 +23237,16 @@
     </row>
     <row r="90" spans="1:23" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="7"/>
@@ -23117,19 +23270,19 @@
     </row>
     <row r="91" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="1"/>
@@ -23152,19 +23305,19 @@
     </row>
     <row r="92" spans="1:23" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="1"/>
@@ -23187,16 +23340,16 @@
     </row>
     <row r="93" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="7"/>
@@ -23220,16 +23373,16 @@
     </row>
     <row r="94" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="7"/>
@@ -23253,19 +23406,19 @@
     </row>
     <row r="95" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="1"/>
@@ -23288,19 +23441,19 @@
     </row>
     <row r="96" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="1"/>
@@ -23323,19 +23476,19 @@
     </row>
     <row r="97" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="1"/>
@@ -23358,16 +23511,16 @@
     </row>
     <row r="98" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="7"/>
@@ -23391,16 +23544,16 @@
     </row>
     <row r="99" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="7"/>
@@ -23424,7 +23577,7 @@
     </row>
     <row r="100" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -23451,16 +23604,16 @@
     </row>
     <row r="101" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="7"/>
@@ -23484,16 +23637,16 @@
     </row>
     <row r="102" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="7"/>
@@ -23517,63 +23670,63 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>633</v>
-      </c>
       <c r="D105" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="107" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="2"/>
@@ -23594,10 +23747,10 @@
     <row r="108" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -23620,10 +23773,10 @@
     <row r="109" spans="1:23" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -23646,10 +23799,10 @@
     <row r="110" spans="1:23" s="7" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -23671,22 +23824,22 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="2"/>
@@ -23706,19 +23859,19 @@
     </row>
     <row r="113" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="2"/>
@@ -23738,19 +23891,19 @@
     </row>
     <row r="114" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="2"/>
@@ -23770,19 +23923,19 @@
     </row>
     <row r="115" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="2"/>
@@ -23802,19 +23955,19 @@
     </row>
     <row r="116" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="2"/>
@@ -23834,19 +23987,19 @@
     </row>
     <row r="117" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="2"/>
@@ -23866,75 +24019,75 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="2" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="E119" s="32" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="D120" s="32" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="E120" s="32" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A121" s="25" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="C122" s="33" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="E122" s="32" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="E123" s="32" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.3">
@@ -23992,7 +24145,7 @@
       <c r="E151" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -24043,74 +24196,74 @@
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B5" s="20"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B6" s="21"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B9" s="20"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B10" s="20"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B13" s="21"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B14" s="20"/>
     </row>
@@ -24139,7 +24292,7 @@
     </row>
     <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -24147,157 +24300,157 @@
     </row>
     <row r="19" spans="1:23" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:23" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:23" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:23" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:23" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:23" s="2" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:23" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" s="2" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:23" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:23" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -24324,19 +24477,19 @@
     </row>
     <row r="31" spans="1:23" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="1"/>
@@ -24361,10 +24514,10 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="7"/>
@@ -24390,10 +24543,10 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="7"/>
@@ -24419,10 +24572,10 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="7"/>
@@ -24448,10 +24601,10 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="7"/>
@@ -24475,19 +24628,19 @@
     </row>
     <row r="36" spans="1:23" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="1"/>
@@ -24512,10 +24665,10 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="7"/>
@@ -24541,10 +24694,10 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="7"/>
@@ -24570,10 +24723,10 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="7"/>
@@ -24599,10 +24752,10 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="7"/>
@@ -24626,19 +24779,19 @@
     </row>
     <row r="41" spans="1:23" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="1"/>
@@ -24663,10 +24816,10 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="7"/>
@@ -24692,10 +24845,10 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="7"/>
@@ -24721,10 +24874,10 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="7"/>
@@ -24750,10 +24903,10 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="7"/>
@@ -24777,16 +24930,16 @@
     </row>
     <row r="46" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="7"/>
@@ -24810,16 +24963,16 @@
     </row>
     <row r="47" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="7"/>
@@ -24843,16 +24996,16 @@
     </row>
     <row r="48" spans="1:23" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="1"/>
@@ -24875,16 +25028,16 @@
     </row>
     <row r="49" spans="1:28" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="1"/>
@@ -24907,7 +25060,7 @@
     </row>
     <row r="50" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -24932,21 +25085,21 @@
       <c r="V50" s="2"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:28" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="1"/>
@@ -24969,16 +25122,16 @@
     </row>
     <row r="52" spans="1:28" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E52" s="2"/>
       <c r="G52" s="1"/>
@@ -25002,21 +25155,21 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="1"/>
@@ -25039,7 +25192,7 @@
     </row>
     <row r="54" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -25066,16 +25219,16 @@
     </row>
     <row r="55" spans="1:28" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="1"/>
@@ -25098,16 +25251,16 @@
     </row>
     <row r="56" spans="1:28" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="7"/>
@@ -25131,16 +25284,16 @@
     </row>
     <row r="57" spans="1:28" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="7"/>
@@ -25164,16 +25317,16 @@
     </row>
     <row r="58" spans="1:28" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="7"/>
@@ -25195,21 +25348,21 @@
       <c r="V58" s="2"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:28" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="1"/>
@@ -25232,19 +25385,19 @@
     </row>
     <row r="60" spans="1:28" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="1"/>
@@ -25267,19 +25420,19 @@
     </row>
     <row r="61" spans="1:28" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="1"/>
@@ -25302,22 +25455,22 @@
     </row>
     <row r="62" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -25347,13 +25500,13 @@
         <v>24</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="7"/>
@@ -25377,19 +25530,19 @@
     </row>
     <row r="65" spans="1:28" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="1"/>
@@ -25414,11 +25567,11 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="17" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="1"/>
@@ -25441,16 +25594,16 @@
     </row>
     <row r="67" spans="1:28" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E67" s="2"/>
       <c r="G67" s="1"/>
@@ -25476,117 +25629,117 @@
     </row>
     <row r="68" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -25595,58 +25748,58 @@
     </row>
     <row r="77" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -25654,10 +25807,10 @@
     <row r="81" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -25665,43 +25818,43 @@
     <row r="82" spans="1:28" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:28" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:28" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="2"/>
@@ -25726,19 +25879,19 @@
     </row>
     <row r="85" spans="1:28" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="2"/>
@@ -25763,7 +25916,7 @@
     </row>
     <row r="86" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -25792,155 +25945,155 @@
     </row>
     <row r="87" spans="1:28" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>467</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:28" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="C96" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E100" s="2"/>
     </row>
@@ -25957,8 +26110,8 @@
   </sheetPr>
   <dimension ref="A2:V99"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:E22"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25995,91 +26148,91 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="B6" s="20"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B10" s="20"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B11" s="20"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B14" s="21"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B16" s="20"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B17" s="20"/>
     </row>
@@ -26108,7 +26261,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -26116,634 +26269,634 @@
     </row>
     <row r="22" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="D24" s="24" t="s">
         <v>762</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>763</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>816</v>
+        <v>1082</v>
       </c>
       <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>814</v>
+        <v>1083</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="27"/>
     </row>
     <row r="52" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B54" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>841</v>
+      </c>
+      <c r="D54" s="27" t="s">
         <v>844</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>847</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="27"/>
     </row>
     <row r="63" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="C65" s="25"/>
       <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>716</v>
+      </c>
+      <c r="D69" s="24" t="s">
         <v>719</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="C69" s="25" t="s">
+      <c r="E69" s="24" t="s">
         <v>720</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>723</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="28" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="B71" s="27"/>
       <c r="C71" s="26"/>
@@ -26751,91 +26904,91 @@
     </row>
     <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C72" s="25" t="s">
         <v>866</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>872</v>
-      </c>
       <c r="D72" s="27" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="24"/>
     </row>
     <row r="77" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E77" s="24"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="C78" s="25"/>
       <c r="D78" s="27"/>
@@ -26843,75 +26996,75 @@
     </row>
     <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C79" s="25" t="s">
         <v>857</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>863</v>
-      </c>
       <c r="D79" s="27" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C82" s="25" t="s">
         <v>806</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>810</v>
-      </c>
       <c r="D82" s="27" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="C83" s="25"/>
       <c r="D83" s="24"/>
@@ -26919,35 +27072,35 @@
     </row>
     <row r="84" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -26955,16 +27108,16 @@
     </row>
     <row r="87" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -27055,76 +27208,76 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="B6" s="20"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -27159,7 +27312,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -27167,114 +27320,114 @@
     </row>
     <row r="22" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -27282,18 +27435,18 @@
     </row>
     <row r="31" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -27301,143 +27454,143 @@
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="32"/>
@@ -27445,88 +27598,88 @@
     </row>
     <row r="46" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
@@ -28874,72 +29027,72 @@
     </row>
     <row r="21" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">

--- a/4 четверть_13_JavaScript_sugarJS.xlsx
+++ b/4 четверть_13_JavaScript_sugarJS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8EE8C6-5BD8-44B7-9A78-9FA14CB6ED03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F9F0A0-17AF-4142-A65A-EB11E46C9673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1089">
   <si>
     <t>construct(n,indexMapFn)</t>
   </si>
@@ -17850,17 +17850,78 @@
       <t>].from(2) ["c"]</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>returns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> element
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Лучше использовать стрелочную функцию, чтобы не иметь проблем с this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+let res = tmp.find((filter) =&gt; {
+  return this.localData.fields.find(filter.FilterField)
+});</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -18151,7 +18212,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -18164,50 +18225,50 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -18216,44 +18277,44 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -19720,8 +19781,8 @@
   </sheetPr>
   <dimension ref="A2:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20416,7 +20477,7 @@
         <v>44</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>181</v>
+        <v>1088</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>909</v>
@@ -20456,7 +20517,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>47</v>
       </c>
@@ -23827,7 +23888,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="112" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>208</v>
       </c>
@@ -24145,7 +24206,7 @@
       <c r="E151" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -24394,7 +24455,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:23" s="2" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>346</v>
       </c>
@@ -25085,7 +25146,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:28" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>40</v>
       </c>
@@ -25155,7 +25216,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
@@ -25348,7 +25409,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:28" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
         <v>335</v>
       </c>

--- a/4 четверть_13_JavaScript_sugarJS.xlsx
+++ b/4 четверть_13_JavaScript_sugarJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F9F0A0-17AF-4142-A65A-EB11E46C9673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA410CE-F335-4ED7-BDA4-1E50BCEE77C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-360" yWindow="-216" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sugarjs" sheetId="20" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1090">
   <si>
     <t>construct(n,indexMapFn)</t>
   </si>
@@ -1181,11 +1181,6 @@
     <t>inGroupsOf(num,[padding] = null)</t>
   </si>
   <si>
-    <t>[1,2,3].includes(2) true
-[1,2,3].includes(4) false
-[1,2,3].includes(2, 3) false</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Returns </t>
     </r>
@@ -5111,10 +5106,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">create Object - remove
-</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Returns </t>
     </r>
@@ -7812,10 +7803,6 @@
     <t>Builds a new object containing all keys except those in find. 
 When find is a string, a single key will be rejected. 
 Arrays or objects match multiple keys, and a regex will match keys by regex.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create Object - remove (аналог)
-</t>
   </si>
   <si>
     <t xml:space="preserve">Object.remove({a:'a',b:'b'}, 'a'); {"b":"b"}
@@ -17903,17 +17890,129 @@
 });</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Работает для keys!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+create Object - remove (аналог)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Работает для values!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+create Object - remove
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Работает для values!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+update - remove - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>модифицирует на месте</t>
+    </r>
+  </si>
+  <si>
+    <t>[1,2,3].includes(2) true
+[1,2,3].includes(4) false
+[1,2,3].includes(2, 3) false
+аналог includes
+tfaAccessChannel.filter(item =&gt; item.frontName === 'Max').length</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -18212,9 +18311,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -18225,29 +18324,38 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -18256,19 +18364,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -18277,42 +18376,48 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -18709,7 +18814,7 @@
     </row>
     <row r="4" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -18733,11 +18838,11 @@
     </row>
     <row r="5" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -18759,13 +18864,13 @@
     </row>
     <row r="6" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -18787,7 +18892,7 @@
     </row>
     <row r="7" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -18813,7 +18918,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -19781,8 +19886,8 @@
   </sheetPr>
   <dimension ref="A2:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19818,80 +19923,80 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -19929,7 +20034,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -19947,16 +20052,16 @@
     </row>
     <row r="20" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>916</v>
+      <c r="C20" s="37" t="s">
+        <v>913</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
@@ -19971,7 +20076,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="9"/>
@@ -19984,10 +20089,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>1</v>
@@ -19998,198 +20103,198 @@
     </row>
     <row r="23" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>1025</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>977</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:23" ht="144" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="144" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -20197,10 +20302,10 @@
     <row r="37" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -20208,10 +20313,10 @@
     <row r="38" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -20221,7 +20326,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="2"/>
@@ -20232,7 +20337,7 @@
         <v>28</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>30</v>
@@ -20243,7 +20348,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -20262,32 +20367,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>27</v>
@@ -20295,30 +20400,30 @@
     </row>
     <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="D46" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
@@ -20340,22 +20445,22 @@
     </row>
     <row r="49" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>136</v>
       </c>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -20366,7 +20471,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
@@ -20380,7 +20485,7 @@
         <v>40</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>41</v>
@@ -20397,13 +20502,13 @@
         <v>17</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -20411,27 +20516,27 @@
         <v>22</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="D55" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>27</v>
@@ -20439,22 +20544,22 @@
     </row>
     <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="D56" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>189</v>
       </c>
       <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="10"/>
     </row>
@@ -20463,7 +20568,7 @@
         <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>20</v>
@@ -20477,10 +20582,10 @@
         <v>44</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>46</v>
@@ -20491,30 +20596,30 @@
     </row>
     <row r="60" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
@@ -20522,13 +20627,13 @@
         <v>47</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>27</v>
@@ -20536,94 +20641,94 @@
     </row>
     <row r="63" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C64" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C69" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="2"/>
@@ -20634,7 +20739,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>7</v>
@@ -20651,7 +20756,7 @@
         <v>6</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>9</v>
@@ -20663,7 +20768,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -20676,7 +20781,7 @@
         <v>50</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>49</v>
@@ -20684,30 +20789,30 @@
     </row>
     <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D76" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>148</v>
       </c>
       <c r="E76" s="14"/>
     </row>
@@ -20716,10 +20821,10 @@
         <v>66</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>67</v>
@@ -20727,7 +20832,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -20739,7 +20844,7 @@
         <v>65</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>63</v>
@@ -20753,16 +20858,16 @@
     </row>
     <row r="80" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="D80" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -20770,10 +20875,10 @@
         <v>42</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>43</v>
@@ -20817,7 +20922,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D85" s="14"/>
     </row>
@@ -20826,7 +20931,7 @@
         <v>33</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>31</v>
@@ -20840,10 +20945,10 @@
         <v>51</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>52</v>
@@ -20854,31 +20959,31 @@
     </row>
     <row r="88" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>160</v>
-      </c>
       <c r="D88" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E88" s="14"/>
     </row>
     <row r="89" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D89" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="E89" s="1"/>
     </row>
@@ -20887,7 +20992,7 @@
         <v>68</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>70</v>
@@ -20904,7 +21009,7 @@
         <v>72</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>73</v>
@@ -20918,95 +21023,95 @@
         <v>75</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>27</v>
@@ -21014,16 +21119,16 @@
     </row>
     <row r="100" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>103</v>
       </c>
       <c r="E100" s="14" t="s">
         <v>27</v>
@@ -21031,36 +21136,36 @@
     </row>
     <row r="101" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E101" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E101" s="14" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D102" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="E102" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
@@ -21068,7 +21173,7 @@
         <v>24</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>26</v>
@@ -21085,7 +21190,7 @@
         <v>34</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>36</v>
@@ -21099,22 +21204,22 @@
     </row>
     <row r="105" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>145</v>
       </c>
       <c r="E105" s="14"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="2"/>
@@ -21122,31 +21227,31 @@
     </row>
     <row r="107" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E107" s="14"/>
     </row>
     <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="E108" s="2"/>
     </row>
@@ -21354,88 +21459,88 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -21463,7 +21568,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -21471,21 +21576,21 @@
     </row>
     <row r="23" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="24" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -21509,16 +21614,16 @@
     </row>
     <row r="25" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>612</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E25" s="2"/>
       <c r="G25" s="1"/>
@@ -21539,19 +21644,19 @@
     </row>
     <row r="26" spans="1:23" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
@@ -21571,16 +21676,16 @@
     </row>
     <row r="27" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="E27" s="2"/>
       <c r="G27" s="1"/>
@@ -21602,13 +21707,13 @@
     <row r="28" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E28" s="2"/>
       <c r="G28" s="1"/>
@@ -21630,13 +21735,13 @@
     <row r="29" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E29" s="2"/>
       <c r="G29" s="1"/>
@@ -21658,13 +21763,13 @@
     <row r="30" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="E30" s="2"/>
       <c r="G30" s="1"/>
@@ -21686,13 +21791,13 @@
     <row r="31" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E31" s="2"/>
       <c r="G31" s="1"/>
@@ -21714,13 +21819,13 @@
     <row r="32" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="E32" s="2"/>
       <c r="G32" s="1"/>
@@ -21742,13 +21847,13 @@
     <row r="33" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="E33" s="2"/>
       <c r="G33" s="1"/>
@@ -21769,19 +21874,19 @@
     </row>
     <row r="34" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>518</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="2"/>
@@ -21801,12 +21906,12 @@
     </row>
     <row r="35" spans="1:23" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="22" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E35" s="4"/>
       <c r="G35" s="1"/>
@@ -21827,7 +21932,7 @@
     </row>
     <row r="36" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -21851,12 +21956,12 @@
     </row>
     <row r="37" spans="1:23" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="22" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E37" s="4"/>
       <c r="G37" s="1"/>
@@ -21877,12 +21982,12 @@
     </row>
     <row r="38" spans="1:23" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="22" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E38" s="4"/>
       <c r="G38" s="1"/>
@@ -21903,12 +22008,12 @@
     </row>
     <row r="39" spans="1:23" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="22" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E39" s="4"/>
       <c r="G39" s="1"/>
@@ -21929,12 +22034,12 @@
     </row>
     <row r="40" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="22" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E40" s="4"/>
       <c r="G40" s="1"/>
@@ -21955,12 +22060,12 @@
     </row>
     <row r="41" spans="1:23" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="22" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E41" s="4"/>
       <c r="G41" s="1"/>
@@ -21981,12 +22086,12 @@
     </row>
     <row r="42" spans="1:23" s="7" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="22" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E42" s="4"/>
       <c r="G42" s="1"/>
@@ -22007,7 +22112,7 @@
     </row>
     <row r="43" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -22031,16 +22136,16 @@
     </row>
     <row r="44" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E44" s="2"/>
       <c r="G44" s="1"/>
@@ -22061,16 +22166,16 @@
     </row>
     <row r="45" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="E45" s="2"/>
       <c r="G45" s="1"/>
@@ -22091,16 +22196,16 @@
     </row>
     <row r="46" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E46" s="2"/>
       <c r="G46" s="1"/>
@@ -22121,16 +22226,16 @@
     </row>
     <row r="47" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E47" s="2"/>
       <c r="G47" s="1"/>
@@ -22151,16 +22256,16 @@
     </row>
     <row r="48" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>616</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E48" s="2"/>
       <c r="G48" s="1"/>
@@ -22181,7 +22286,7 @@
     </row>
     <row r="49" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -22205,19 +22310,19 @@
     </row>
     <row r="50" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="2"/>
@@ -22237,19 +22342,19 @@
     </row>
     <row r="51" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="2"/>
@@ -22269,19 +22374,19 @@
     </row>
     <row r="52" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="2"/>
@@ -22301,19 +22406,19 @@
     </row>
     <row r="53" spans="1:23" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>641</v>
-      </c>
       <c r="D53" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="2"/>
@@ -22333,19 +22438,19 @@
     </row>
     <row r="54" spans="1:23" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="2"/>
@@ -22365,7 +22470,7 @@
     </row>
     <row r="55" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -22389,19 +22494,19 @@
     </row>
     <row r="56" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>509</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="2"/>
@@ -22421,16 +22526,16 @@
     </row>
     <row r="57" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>514</v>
-      </c>
       <c r="D57" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E57" s="2"/>
       <c r="G57" s="1"/>
@@ -22451,16 +22556,16 @@
     </row>
     <row r="58" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>591</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="7"/>
@@ -22484,37 +22589,37 @@
     </row>
     <row r="59" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>620</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -22538,19 +22643,19 @@
     </row>
     <row r="62" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="2"/>
@@ -22570,10 +22675,10 @@
     </row>
     <row r="63" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -22596,10 +22701,10 @@
     </row>
     <row r="64" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -22622,10 +22727,10 @@
     </row>
     <row r="65" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -22648,10 +22753,10 @@
     </row>
     <row r="66" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -22674,13 +22779,13 @@
     </row>
     <row r="67" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -22702,10 +22807,10 @@
     </row>
     <row r="68" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -22728,10 +22833,10 @@
     </row>
     <row r="69" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -22754,13 +22859,13 @@
     </row>
     <row r="70" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -22782,16 +22887,16 @@
     </row>
     <row r="71" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E71" s="2"/>
       <c r="G71" s="1"/>
@@ -22812,16 +22917,16 @@
     </row>
     <row r="72" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E72" s="2"/>
       <c r="G72" s="1"/>
@@ -22842,19 +22947,19 @@
     </row>
     <row r="73" spans="1:23" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="2"/>
@@ -22874,16 +22979,16 @@
     </row>
     <row r="74" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="D74" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E74" s="2"/>
       <c r="G74" s="1"/>
@@ -22904,16 +23009,16 @@
     </row>
     <row r="75" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>605</v>
-      </c>
       <c r="D75" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E75" s="2"/>
       <c r="G75" s="1"/>
@@ -22934,7 +23039,7 @@
     </row>
     <row r="76" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -22961,13 +23066,13 @@
         <v>28</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E77" s="2"/>
       <c r="G77" s="1"/>
@@ -22988,7 +23093,7 @@
     </row>
     <row r="78" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -23012,16 +23117,16 @@
     </row>
     <row r="79" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E79" s="2"/>
       <c r="G79" s="1"/>
@@ -23042,21 +23147,21 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="81" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="D81" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E81" s="2"/>
       <c r="G81" s="1"/>
@@ -23077,7 +23182,7 @@
     </row>
     <row r="82" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -23101,16 +23206,16 @@
     </row>
     <row r="83" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="D83" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="7"/>
@@ -23134,21 +23239,21 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="85" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="D85" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="7"/>
@@ -23172,16 +23277,16 @@
     </row>
     <row r="86" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="7"/>
@@ -23205,7 +23310,7 @@
     </row>
     <row r="87" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -23232,16 +23337,16 @@
     </row>
     <row r="88" spans="1:23" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>538</v>
-      </c>
       <c r="D88" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="7"/>
@@ -23265,16 +23370,16 @@
     </row>
     <row r="89" spans="1:23" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>542</v>
-      </c>
       <c r="D89" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="7"/>
@@ -23298,16 +23403,16 @@
     </row>
     <row r="90" spans="1:23" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>546</v>
-      </c>
       <c r="D90" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="7"/>
@@ -23331,19 +23436,19 @@
     </row>
     <row r="91" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="1"/>
@@ -23366,19 +23471,19 @@
     </row>
     <row r="92" spans="1:23" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>553</v>
-      </c>
       <c r="D92" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="1"/>
@@ -23401,16 +23506,16 @@
     </row>
     <row r="93" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="7"/>
@@ -23434,16 +23539,16 @@
     </row>
     <row r="94" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="7"/>
@@ -23467,19 +23572,19 @@
     </row>
     <row r="95" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="1"/>
@@ -23502,19 +23607,19 @@
     </row>
     <row r="96" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>576</v>
-      </c>
       <c r="D96" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="1"/>
@@ -23537,19 +23642,19 @@
     </row>
     <row r="97" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>561</v>
-      </c>
       <c r="D97" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="1"/>
@@ -23572,16 +23677,16 @@
     </row>
     <row r="98" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="7"/>
@@ -23605,16 +23710,16 @@
     </row>
     <row r="99" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="7"/>
@@ -23638,7 +23743,7 @@
     </row>
     <row r="100" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -23665,16 +23770,16 @@
     </row>
     <row r="101" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="7"/>
@@ -23698,16 +23803,16 @@
     </row>
     <row r="102" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>587</v>
-      </c>
       <c r="D102" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="7"/>
@@ -23731,63 +23836,63 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>624</v>
-      </c>
       <c r="D104" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>628</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="107" spans="1:23" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="2"/>
@@ -23808,10 +23913,10 @@
     <row r="108" spans="1:23" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -23834,10 +23939,10 @@
     <row r="109" spans="1:23" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -23860,10 +23965,10 @@
     <row r="110" spans="1:23" s="7" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -23885,22 +23990,22 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="112" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="2"/>
@@ -23920,19 +24025,19 @@
     </row>
     <row r="113" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="D113" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="2"/>
@@ -23952,19 +24057,19 @@
     </row>
     <row r="114" spans="1:23" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="D114" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="2"/>
@@ -23984,19 +24089,19 @@
     </row>
     <row r="115" spans="1:23" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="D115" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="2"/>
@@ -24016,19 +24121,19 @@
     </row>
     <row r="116" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="2"/>
@@ -24048,19 +24153,19 @@
     </row>
     <row r="117" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="2"/>
@@ -24080,75 +24185,75 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="2" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E119" s="32" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>952</v>
+      </c>
+      <c r="D120" s="32" t="s">
+        <v>951</v>
+      </c>
+      <c r="E120" s="32" t="s">
         <v>953</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>955</v>
-      </c>
-      <c r="D120" s="32" t="s">
-        <v>954</v>
-      </c>
-      <c r="E120" s="32" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A121" s="25" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>961</v>
+      </c>
+      <c r="D122" s="32" t="s">
+        <v>960</v>
+      </c>
+      <c r="E122" s="32" t="s">
         <v>962</v>
-      </c>
-      <c r="C122" s="33" t="s">
-        <v>964</v>
-      </c>
-      <c r="D122" s="32" t="s">
-        <v>963</v>
-      </c>
-      <c r="E122" s="32" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>965</v>
+      </c>
+      <c r="D123" s="32" t="s">
+        <v>964</v>
+      </c>
+      <c r="E123" s="32" t="s">
         <v>966</v>
-      </c>
-      <c r="C123" s="25" t="s">
-        <v>968</v>
-      </c>
-      <c r="D123" s="32" t="s">
-        <v>967</v>
-      </c>
-      <c r="E123" s="32" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.3">
@@ -24206,7 +24311,7 @@
       <c r="E151" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -24219,8 +24324,8 @@
   </sheetPr>
   <dimension ref="A2:AB100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:E58"/>
+    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C52" sqref="A52:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24257,74 +24362,74 @@
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B5" s="20"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B6" s="21"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" s="20"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B10" s="20"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B13" s="21"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B14" s="20"/>
     </row>
@@ -24353,7 +24458,7 @@
     </row>
     <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -24361,157 +24466,157 @@
     </row>
     <row r="19" spans="1:23" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:23" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:23" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="D23" s="17" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:23" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:23" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:23" s="2" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:23" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:23" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:23" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -24538,19 +24643,19 @@
     </row>
     <row r="31" spans="1:23" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="1"/>
@@ -24575,10 +24680,10 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="7"/>
@@ -24604,10 +24709,10 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="7"/>
@@ -24633,10 +24738,10 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="7"/>
@@ -24662,10 +24767,10 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="7"/>
@@ -24689,19 +24794,19 @@
     </row>
     <row r="36" spans="1:23" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="D36" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E36" s="17" t="s">
         <v>411</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="1"/>
@@ -24726,10 +24831,10 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="7"/>
@@ -24755,10 +24860,10 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="7"/>
@@ -24784,10 +24889,10 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="7"/>
@@ -24813,10 +24918,10 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="7"/>
@@ -24840,19 +24945,19 @@
     </row>
     <row r="41" spans="1:23" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="1"/>
@@ -24877,10 +24982,10 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="7"/>
@@ -24906,10 +25011,10 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="7"/>
@@ -24935,10 +25040,10 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="7"/>
@@ -24964,10 +25069,10 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="7"/>
@@ -24991,16 +25096,16 @@
     </row>
     <row r="46" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="7"/>
@@ -25024,16 +25129,16 @@
     </row>
     <row r="47" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="7"/>
@@ -25057,16 +25162,16 @@
     </row>
     <row r="48" spans="1:23" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="1"/>
@@ -25089,16 +25194,16 @@
     </row>
     <row r="49" spans="1:28" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B49" s="27" t="s">
+        <v>908</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>914</v>
-      </c>
       <c r="D49" s="17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="1"/>
@@ -25121,7 +25226,7 @@
     </row>
     <row r="50" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -25146,33 +25251,28 @@
       <c r="V50" s="2"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:28" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>341</v>
+        <v>433</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>1086</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>339</v>
+        <v>434</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="F51" s="7"/>
+        <v>435</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="G51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="7"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
-      <c r="P51" s="7"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
@@ -25180,29 +25280,39 @@
       <c r="U51" s="8"/>
       <c r="V51" s="2"/>
       <c r="W51" s="1"/>
-    </row>
-    <row r="52" spans="1:28" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+    </row>
+    <row r="52" spans="1:28" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>438</v>
+        <v>40</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>1087</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>436</v>
+        <v>338</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E52" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="F52" s="7"/>
       <c r="G52" s="1"/>
       <c r="H52" s="2"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
+      <c r="K52" s="7"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
+      <c r="P52" s="7"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
@@ -25210,27 +25320,22 @@
       <c r="U52" s="8"/>
       <c r="V52" s="2"/>
       <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
     </row>
     <row r="53" spans="1:28" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>188</v>
+        <v>123</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>1088</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="1"/>
@@ -25253,7 +25358,7 @@
     </row>
     <row r="54" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -25280,16 +25385,16 @@
     </row>
     <row r="55" spans="1:28" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="1"/>
@@ -25312,16 +25417,16 @@
     </row>
     <row r="56" spans="1:28" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="7"/>
@@ -25345,16 +25450,16 @@
     </row>
     <row r="57" spans="1:28" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="7"/>
@@ -25378,16 +25483,16 @@
     </row>
     <row r="58" spans="1:28" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="7"/>
@@ -25411,19 +25516,19 @@
     </row>
     <row r="59" spans="1:28" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="1"/>
@@ -25446,19 +25551,19 @@
     </row>
     <row r="60" spans="1:28" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="1"/>
@@ -25481,19 +25586,19 @@
     </row>
     <row r="61" spans="1:28" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="1"/>
@@ -25516,22 +25621,22 @@
     </row>
     <row r="62" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -25561,13 +25666,13 @@
         <v>24</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="7"/>
@@ -25591,19 +25696,19 @@
     </row>
     <row r="65" spans="1:28" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="1"/>
@@ -25628,11 +25733,11 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="1"/>
@@ -25655,16 +25760,16 @@
     </row>
     <row r="67" spans="1:28" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E67" s="2"/>
       <c r="G67" s="1"/>
@@ -25690,117 +25795,117 @@
     </row>
     <row r="68" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -25809,58 +25914,58 @@
     </row>
     <row r="77" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="D78" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="D79" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -25868,10 +25973,10 @@
     <row r="81" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -25879,43 +25984,43 @@
     <row r="82" spans="1:28" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:28" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="D83" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="1:28" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="2"/>
@@ -25940,19 +26045,19 @@
     </row>
     <row r="85" spans="1:28" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="D85" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="2"/>
@@ -25977,7 +26082,7 @@
     </row>
     <row r="86" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -26006,155 +26111,155 @@
     </row>
     <row r="87" spans="1:28" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="C90" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="C91" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:28" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="C92" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="C93" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>467</v>
-      </c>
       <c r="E94" s="17" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="C95" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="C96" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="C97" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="C98" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E100" s="2"/>
     </row>
@@ -26209,91 +26314,91 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B6" s="20"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B10" s="20"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B11" s="20"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B14" s="21"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B16" s="20"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B17" s="20"/>
     </row>
@@ -26322,7 +26427,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -26330,634 +26435,634 @@
     </row>
     <row r="22" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="27" t="s">
+        <v>917</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>920</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C24" s="25" t="s">
+        <v>756</v>
+      </c>
+      <c r="D24" s="24" t="s">
         <v>759</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>871</v>
+      </c>
+      <c r="D37" s="27" t="s">
         <v>872</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>874</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>875</v>
-      </c>
       <c r="E37" s="27" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>777</v>
+      </c>
+      <c r="D42" s="24" t="s">
         <v>779</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>780</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>784</v>
-      </c>
       <c r="D43" s="24" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>846</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>849</v>
-      </c>
       <c r="D46" s="27" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C47" s="25" t="s">
         <v>847</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>850</v>
-      </c>
       <c r="D47" s="27" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="27"/>
     </row>
     <row r="52" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C53" s="25" t="s">
+        <v>837</v>
+      </c>
+      <c r="D53" s="27" t="s">
         <v>840</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B54" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="C54" s="25" t="s">
         <v>838</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="D54" s="27" t="s">
         <v>841</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>833</v>
-      </c>
       <c r="C57" s="25" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>877</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>876</v>
+      </c>
+      <c r="E59" s="27" t="s">
         <v>878</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>880</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>879</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C60" s="25" t="s">
         <v>814</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>817</v>
-      </c>
       <c r="D60" s="27" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="27"/>
     </row>
     <row r="63" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>885</v>
-      </c>
       <c r="C64" s="25" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D64" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="E64" s="27" t="s">
         <v>883</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C65" s="25"/>
       <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C67" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>742</v>
-      </c>
       <c r="D67" s="24" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="E68" s="24" t="s">
         <v>718</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>711</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>710</v>
-      </c>
-      <c r="E68" s="24" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>713</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="E69" s="24" t="s">
         <v>717</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>716</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>719</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="28" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B71" s="27"/>
       <c r="C71" s="26"/>
@@ -26965,91 +27070,91 @@
     </row>
     <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C73" s="25" t="s">
         <v>862</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>865</v>
-      </c>
       <c r="D73" s="27" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="24"/>
     </row>
     <row r="77" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E77" s="24"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C78" s="25"/>
       <c r="D78" s="27"/>
@@ -27057,75 +27162,75 @@
     </row>
     <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C83" s="25"/>
       <c r="D83" s="24"/>
@@ -27133,35 +27238,35 @@
     </row>
     <row r="84" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>729</v>
-      </c>
       <c r="C84" s="25" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>733</v>
-      </c>
       <c r="C85" s="25" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -27169,16 +27274,16 @@
     </row>
     <row r="87" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>746</v>
-      </c>
       <c r="C87" s="25" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -27269,76 +27374,76 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B6" s="20"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -27373,7 +27478,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -27381,114 +27486,114 @@
     </row>
     <row r="22" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -27496,18 +27601,18 @@
     </row>
     <row r="31" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -27515,143 +27620,143 @@
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="32"/>
@@ -27659,88 +27764,88 @@
     </row>
     <row r="46" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
@@ -29088,72 +29193,72 @@
     </row>
     <row r="21" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>1068</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
